--- a/jd/data_files/shop_data.xlsx
+++ b/jd/data_files/shop_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3397"/>
+  <dimension ref="A1:C3588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58170,6 +58170,3253 @@
         </is>
       </c>
     </row>
+    <row r="3398">
+      <c r="A3398" t="inlineStr">
+        <is>
+          <t>Apple产品京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3398" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000000127.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3398" t="inlineStr">
+        <is>
+          <t>Apple产品京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" t="inlineStr">
+        <is>
+          <t>华为中联智能专卖店</t>
+        </is>
+      </c>
+      <c r="B3399" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-674824.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3399" t="inlineStr">
+        <is>
+          <t>武汉中联硕达科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" t="inlineStr">
+        <is>
+          <t>挚诚优选二手电脑专营店</t>
+        </is>
+      </c>
+      <c r="B3400" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11961290.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3400" t="inlineStr">
+        <is>
+          <t>挚诚优选二手电脑专营店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" t="inlineStr">
+        <is>
+          <t>AMAZFIT京东自营官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3401" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000012543.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3401" t="inlineStr">
+        <is>
+          <t>AMAZFIT京东自营官方旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" t="inlineStr">
+        <is>
+          <t>际麟旗舰店</t>
+        </is>
+      </c>
+      <c r="B3402" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11457936.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3402" t="inlineStr">
+        <is>
+          <t>深圳市金贝塔电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" t="inlineStr">
+        <is>
+          <t>倍斯清二手数码设备专营店</t>
+        </is>
+      </c>
+      <c r="B3403" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10120489.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3403" t="inlineStr">
+        <is>
+          <t>倍斯清二手数码设备专营店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" t="inlineStr">
+        <is>
+          <t>华为乐研精石专卖店</t>
+        </is>
+      </c>
+      <c r="B3404" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10324313.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3404" t="inlineStr">
+        <is>
+          <t>武汉乐研精石科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" t="inlineStr">
+        <is>
+          <t>华为秒通专卖店</t>
+        </is>
+      </c>
+      <c r="B3405" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-645000.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3405" t="inlineStr">
+        <is>
+          <t>深圳市秒通科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" t="inlineStr">
+        <is>
+          <t>瀚祥二手数码专营店</t>
+        </is>
+      </c>
+      <c r="B3406" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-937837.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3406" t="inlineStr">
+        <is>
+          <t>爱尚优品电子数码（枣庄）有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" t="inlineStr">
+        <is>
+          <t>天翼电信智能京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3407" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000427001.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3407" t="inlineStr">
+        <is>
+          <t>天翼电信智能京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" t="inlineStr">
+        <is>
+          <t>盛予二手智能设备专营店</t>
+        </is>
+      </c>
+      <c r="B3408" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10345431.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3408" t="inlineStr">
+        <is>
+          <t>深圳市盛予科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" t="inlineStr">
+        <is>
+          <t>置物不一二手数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3409" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10132069.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3409" t="inlineStr">
+        <is>
+          <t>泉州六八信息科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" t="inlineStr">
+        <is>
+          <t>爱百分智能设备京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3410" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-979132.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3410" t="inlineStr">
+        <is>
+          <t>爱百分智能设备京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" t="inlineStr">
+        <is>
+          <t>华为比特专卖店</t>
+        </is>
+      </c>
+      <c r="B3411" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-796063.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3411" t="inlineStr">
+        <is>
+          <t>合肥比特数码科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" t="inlineStr">
+        <is>
+          <t>华为（HUAWEI）数码智能设备京喜直营专区</t>
+        </is>
+      </c>
+      <c r="B3412" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000475375.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3412" t="inlineStr">
+        <is>
+          <t>华为（HUAWEI）数码智能设备京喜直营专区：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" t="inlineStr">
+        <is>
+          <t>崎梦二手智能设备专营店</t>
+        </is>
+      </c>
+      <c r="B3413" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12083209.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3413" t="inlineStr">
+        <is>
+          <t>佛山粤创展示制品有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" t="inlineStr">
+        <is>
+          <t>梵愔二手平板电脑专营店</t>
+        </is>
+      </c>
+      <c r="B3414" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10379798.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3414" t="inlineStr">
+        <is>
+          <t>泉州梵愔电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" t="inlineStr">
+        <is>
+          <t>珈果智能网络专营店</t>
+        </is>
+      </c>
+      <c r="B3415" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-181231.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3415" t="inlineStr">
+        <is>
+          <t>启东珈果商贸有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" t="inlineStr">
+        <is>
+          <t>神童中举官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3416" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12823030.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3416" t="inlineStr">
+        <is>
+          <t>东莞市佰集电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" t="inlineStr">
+        <is>
+          <t>港深手机通讯买手店</t>
+        </is>
+      </c>
+      <c r="B3417" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12970954.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3417" t="inlineStr">
+        <is>
+          <t>港深手机通讯买手店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" t="inlineStr">
+        <is>
+          <t>倪好二手智能设备专营店</t>
+        </is>
+      </c>
+      <c r="B3418" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11544920.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3418" t="inlineStr">
+        <is>
+          <t>深圳市倪好商贸有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" t="inlineStr">
+        <is>
+          <t>金牌二手平板电脑专营店</t>
+        </is>
+      </c>
+      <c r="B3419" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12127361.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3419" t="inlineStr">
+        <is>
+          <t>深圳市杰汇电子科技发展有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" t="inlineStr">
+        <is>
+          <t>星辰二手智能设备专营店</t>
+        </is>
+      </c>
+      <c r="B3420" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12398466.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3420" t="inlineStr">
+        <is>
+          <t>成都依科商贸有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" t="inlineStr">
+        <is>
+          <t>同达二手智能设备专营店</t>
+        </is>
+      </c>
+      <c r="B3421" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11472147.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3421" t="inlineStr">
+        <is>
+          <t>无锡市同达电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" t="inlineStr">
+        <is>
+          <t>爱百分旗舰店</t>
+        </is>
+      </c>
+      <c r="B3422" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-861737.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3422" t="inlineStr">
+        <is>
+          <t>深圳市新九州智能有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" t="inlineStr">
+        <is>
+          <t>蘅飞二手智能设备专营店</t>
+        </is>
+      </c>
+      <c r="B3423" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11483126.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3423" t="inlineStr">
+        <is>
+          <t>新余市蘅飞电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" t="inlineStr">
+        <is>
+          <t>智能穿戴京东自营特价专区</t>
+        </is>
+      </c>
+      <c r="B3424" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000469703.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3424" t="inlineStr">
+        <is>
+          <t>智能穿戴京东自营特价专区：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" t="inlineStr">
+        <is>
+          <t>叁齿旗舰店</t>
+        </is>
+      </c>
+      <c r="B3425" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11594275.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3425" t="inlineStr">
+        <is>
+          <t>贰己（深圳）实业有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" t="inlineStr">
+        <is>
+          <t>兴盛世数码专营店</t>
+        </is>
+      </c>
+      <c r="B3426" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10390760.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3426" t="inlineStr">
+        <is>
+          <t>深圳市兴盛世科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" t="inlineStr">
+        <is>
+          <t>优质优品二手数码专营店</t>
+        </is>
+      </c>
+      <c r="B3427" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10703720.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3427" t="inlineStr">
+        <is>
+          <t>西安四方橙网络科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" t="inlineStr">
+        <is>
+          <t>泉汉数码专营店</t>
+        </is>
+      </c>
+      <c r="B3428" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-634257.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3428" t="inlineStr">
+        <is>
+          <t>长春市泉汉电子设备有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" t="inlineStr">
+        <is>
+          <t>爱尚二手智能专营店</t>
+        </is>
+      </c>
+      <c r="B3429" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10073804.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3429" t="inlineStr">
+        <is>
+          <t>爱尚优品电子数码（枣庄）有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" t="inlineStr">
+        <is>
+          <t>一方买手店</t>
+        </is>
+      </c>
+      <c r="B3430" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12943441.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3430" t="inlineStr">
+        <is>
+          <t>一方买手店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" t="inlineStr">
+        <is>
+          <t>ZELLA DAY手表旗舰店</t>
+        </is>
+      </c>
+      <c r="B3431" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10205521.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3431" t="inlineStr">
+        <is>
+          <t>ZELLA DAY手表旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" t="inlineStr">
+        <is>
+          <t>达沃奇官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3432" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-855616.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3432" t="inlineStr">
+        <is>
+          <t>深圳市深宏图科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" t="inlineStr">
+        <is>
+          <t>欧维数码经营部</t>
+        </is>
+      </c>
+      <c r="B3433" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12588208.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3433" t="inlineStr">
+        <is>
+          <t>欧维数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" t="inlineStr">
+        <is>
+          <t>三星官翻手机旗舰店</t>
+        </is>
+      </c>
+      <c r="B3434" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-718072.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3434" t="inlineStr">
+        <is>
+          <t>广州图腾信息科技股份有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" t="inlineStr">
+        <is>
+          <t>京东电竞手机官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3435" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10146482.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3435" t="inlineStr">
+        <is>
+          <t>京东星宇电竞（北京）文化传播有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" t="inlineStr">
+        <is>
+          <t>京京砸百万与多多开战经营部</t>
+        </is>
+      </c>
+      <c r="B3436" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12710708.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3436" t="inlineStr">
+        <is>
+          <t>京京砸百万与多多开战经营部：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" t="inlineStr">
+        <is>
+          <t>OPPO乐良数码专卖店</t>
+        </is>
+      </c>
+      <c r="B3437" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-682939.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3437" t="inlineStr">
+        <is>
+          <t>上海乐良网络科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" t="inlineStr">
+        <is>
+          <t>信诚优品二手电脑专营店</t>
+        </is>
+      </c>
+      <c r="B3438" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10347038.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3438" t="inlineStr">
+        <is>
+          <t>陕西信诚优品网络科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" t="inlineStr">
+        <is>
+          <t>罗凡尼二手手机专营店</t>
+        </is>
+      </c>
+      <c r="B3439" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10075090.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3439" t="inlineStr">
+        <is>
+          <t>北京罗凡尼科技发展有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" t="inlineStr">
+        <is>
+          <t>京东手机运营商自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3440" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000366384.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3440" t="inlineStr">
+        <is>
+          <t>京东手机运营商自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" t="inlineStr">
+        <is>
+          <t>边城通讯手机买手店</t>
+        </is>
+      </c>
+      <c r="B3441" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12962323.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3441" t="inlineStr">
+        <is>
+          <t>边城通讯手机买手店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" t="inlineStr">
+        <is>
+          <t>领坚官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3442" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-909372.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3442" t="inlineStr">
+        <is>
+          <t>北京奕格人工智能科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" t="inlineStr">
+        <is>
+          <t>麦诺美官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3443" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-938717.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3443" t="inlineStr">
+        <is>
+          <t>成都麦诺美商贸有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" t="inlineStr">
+        <is>
+          <t>摩士（MOROO）数码智能京喜直营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3444" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000440603.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3444" t="inlineStr">
+        <is>
+          <t>摩士（MOROO）数码智能京喜直营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" t="inlineStr">
+        <is>
+          <t>Litka数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3445" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11826079.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3445" t="inlineStr">
+        <is>
+          <t>深圳市紫铭商贸有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" t="inlineStr">
+        <is>
+          <t>Only One官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3446" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12318382.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3446" t="inlineStr">
+        <is>
+          <t>深圳市斯特敏贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" t="inlineStr">
+        <is>
+          <t>盛世佳音数码专营店</t>
+        </is>
+      </c>
+      <c r="B3447" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-705056.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3447" t="inlineStr">
+        <is>
+          <t>深圳市盛世佳音科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" t="inlineStr">
+        <is>
+          <t>众志成力数码专营店</t>
+        </is>
+      </c>
+      <c r="B3448" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-183921.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3448" t="inlineStr">
+        <is>
+          <t>众志成力数码专营店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" t="inlineStr">
+        <is>
+          <t>华为（HUAWEI）数码京喜直营专区</t>
+        </is>
+      </c>
+      <c r="B3449" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000466408.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3449" t="inlineStr">
+        <is>
+          <t>华为（HUAWEI）数码京喜直营专区：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" t="inlineStr">
+        <is>
+          <t>华中数码经营部</t>
+        </is>
+      </c>
+      <c r="B3450" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12980120.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3450" t="inlineStr">
+        <is>
+          <t>华中数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" t="inlineStr">
+        <is>
+          <t>中国电信京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3451" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000084883.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3451" t="inlineStr">
+        <is>
+          <t>中国电信京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" t="inlineStr">
+        <is>
+          <t>一鑫一益二手智能设备专营店</t>
+        </is>
+      </c>
+      <c r="B3452" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11635061.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3452" t="inlineStr">
+        <is>
+          <t>深圳市一鑫一益科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" t="inlineStr">
+        <is>
+          <t>恒一二手智能设备专营店</t>
+        </is>
+      </c>
+      <c r="B3453" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12875637.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3453" t="inlineStr">
+        <is>
+          <t>成都恒一严选商贸有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" t="inlineStr">
+        <is>
+          <t>华景二手智能设备专营店</t>
+        </is>
+      </c>
+      <c r="B3454" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11620572.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3454" t="inlineStr">
+        <is>
+          <t>北京江华景云科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" t="inlineStr">
+        <is>
+          <t>华伟二手智能设备专营店</t>
+        </is>
+      </c>
+      <c r="B3455" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12088365.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3455" t="inlineStr">
+        <is>
+          <t>北京江华景云科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" t="inlineStr">
+        <is>
+          <t>兔兔龙数码经营部</t>
+        </is>
+      </c>
+      <c r="B3456" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13171340.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3456" t="inlineStr">
+        <is>
+          <t>兔兔龙数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" t="inlineStr">
+        <is>
+          <t>3c数码智能经营部</t>
+        </is>
+      </c>
+      <c r="B3457" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12784482.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3457" t="inlineStr">
+        <is>
+          <t>3c数码智能经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" t="inlineStr">
+        <is>
+          <t>企业级电脑办公京东自营专区</t>
+        </is>
+      </c>
+      <c r="B3458" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000435922.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3458" t="inlineStr">
+        <is>
+          <t>企业级电脑办公京东自营专区：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" t="inlineStr">
+        <is>
+          <t>果元素（GUOYUANSU）数码京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3459" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000425503.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3459" t="inlineStr">
+        <is>
+          <t>果元素（GUOYUANSU）数码京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" t="inlineStr">
+        <is>
+          <t>智力快车智能设备京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3460" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12048592.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3460" t="inlineStr">
+        <is>
+          <t>智力快车智能设备京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" t="inlineStr">
+        <is>
+          <t>一合十旗舰店</t>
+        </is>
+      </c>
+      <c r="B3461" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10137713.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3461" t="inlineStr">
+        <is>
+          <t>深圳市坤甄发贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" t="inlineStr">
+        <is>
+          <t>NUOBAOER官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3462" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-81317.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3462" t="inlineStr">
+        <is>
+          <t>广州正又方计算机科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" t="inlineStr">
+        <is>
+          <t>GOGI京东官方自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3463" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13026008.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3463" t="inlineStr">
+        <is>
+          <t>GOGI京东官方自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" t="inlineStr">
+        <is>
+          <t>小糯 LITTLE NUO官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3464" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13289023.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3464" t="inlineStr">
+        <is>
+          <t>江苏翔始一网络科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" t="inlineStr">
+        <is>
+          <t>Aelvo手表旗舰店</t>
+        </is>
+      </c>
+      <c r="B3465" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11592287.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3465" t="inlineStr">
+        <is>
+          <t>Aelvo手表旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" t="inlineStr">
+        <is>
+          <t>华为澳先专卖店</t>
+        </is>
+      </c>
+      <c r="B3466" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-118692.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3466" t="inlineStr">
+        <is>
+          <t>深圳市澳先科技开发有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" t="inlineStr">
+        <is>
+          <t>智天者数码经营部</t>
+        </is>
+      </c>
+      <c r="B3467" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13018886.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3467" t="inlineStr">
+        <is>
+          <t>智天者数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" t="inlineStr">
+        <is>
+          <t>华蔚智能数码小店</t>
+        </is>
+      </c>
+      <c r="B3468" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12744146.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3468" t="inlineStr">
+        <is>
+          <t>华蔚智能数码小店：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" t="inlineStr">
+        <is>
+          <t>智能手表小铺</t>
+        </is>
+      </c>
+      <c r="B3469" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12623461.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3469" t="inlineStr">
+        <is>
+          <t>智能手表小铺：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" t="inlineStr">
+        <is>
+          <t>华斯数码经营部</t>
+        </is>
+      </c>
+      <c r="B3470" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13052779.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3470" t="inlineStr">
+        <is>
+          <t>华斯数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" t="inlineStr">
+        <is>
+          <t>天才儿童数码经营部</t>
+        </is>
+      </c>
+      <c r="B3471" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13074669.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3471" t="inlineStr">
+        <is>
+          <t>天才儿童数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" t="inlineStr">
+        <is>
+          <t>智能手表专业经营部</t>
+        </is>
+      </c>
+      <c r="B3472" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13027791.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3472" t="inlineStr">
+        <is>
+          <t>智能手表专业经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" t="inlineStr">
+        <is>
+          <t>智能电话儿童手表经营部</t>
+        </is>
+      </c>
+      <c r="B3473" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13244084.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3473" t="inlineStr">
+        <is>
+          <t>智能电话儿童手表经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" t="inlineStr">
+        <is>
+          <t>骁楠数码小店</t>
+        </is>
+      </c>
+      <c r="B3474" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12621497.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3474" t="inlineStr">
+        <is>
+          <t>骁楠数码小店：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" t="inlineStr">
+        <is>
+          <t>仰化二手电脑专营店</t>
+        </is>
+      </c>
+      <c r="B3475" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10084356.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3475" t="inlineStr">
+        <is>
+          <t>仰化二手电脑专营店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3476">
+      <c r="A3476" t="inlineStr">
+        <is>
+          <t>奇奇果数码经营部</t>
+        </is>
+      </c>
+      <c r="B3476" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13042049.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3476" t="inlineStr">
+        <is>
+          <t>奇奇果数码经营部：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" t="inlineStr">
+        <is>
+          <t>华创为科数码经营部</t>
+        </is>
+      </c>
+      <c r="B3477" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13130699.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3477" t="inlineStr">
+        <is>
+          <t>华创为科数码经营部：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3478">
+      <c r="A3478" t="inlineStr">
+        <is>
+          <t>宸茜二手电脑数码专营店</t>
+        </is>
+      </c>
+      <c r="B3478" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10157159.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3478" t="inlineStr">
+        <is>
+          <t>北京新瑞景驰科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" t="inlineStr">
+        <is>
+          <t>华尼数码经营部</t>
+        </is>
+      </c>
+      <c r="B3479" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13054564.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3479" t="inlineStr">
+        <is>
+          <t>华尼数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" t="inlineStr">
+        <is>
+          <t>数码之家经营部</t>
+        </is>
+      </c>
+      <c r="B3480" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13171845.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3480" t="inlineStr">
+        <is>
+          <t>数码之家经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3481">
+      <c r="A3481" t="inlineStr">
+        <is>
+          <t>铂亿思智能小店</t>
+        </is>
+      </c>
+      <c r="B3481" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12793144.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3481" t="inlineStr">
+        <is>
+          <t>铂亿思智能小店：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3482">
+      <c r="A3482" t="inlineStr">
+        <is>
+          <t>新数码经营部小店</t>
+        </is>
+      </c>
+      <c r="B3482" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12694424.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3482" t="inlineStr">
+        <is>
+          <t>新数码经营部小店：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3483">
+      <c r="A3483" t="inlineStr">
+        <is>
+          <t>维娇智能经营部</t>
+        </is>
+      </c>
+      <c r="B3483" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12483890.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3483" t="inlineStr">
+        <is>
+          <t>维娇智能经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3484">
+      <c r="A3484" t="inlineStr">
+        <is>
+          <t>工科大小店</t>
+        </is>
+      </c>
+      <c r="B3484" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12940500.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3484" t="inlineStr">
+        <is>
+          <t>工科大小店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3485">
+      <c r="A3485" t="inlineStr">
+        <is>
+          <t>鼎呱呱数码工作室</t>
+        </is>
+      </c>
+      <c r="B3485" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13191223.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3485" t="inlineStr">
+        <is>
+          <t>鼎呱呱数码工作室：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3486">
+      <c r="A3486" t="inlineStr">
+        <is>
+          <t>梓晴手表小店</t>
+        </is>
+      </c>
+      <c r="B3486" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12517898.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3486" t="inlineStr">
+        <is>
+          <t>梓晴手表小店：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3487">
+      <c r="A3487" t="inlineStr">
+        <is>
+          <t>华晨数码经营部</t>
+        </is>
+      </c>
+      <c r="B3487" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13042471.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3487" t="inlineStr">
+        <is>
+          <t>华晨数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3488">
+      <c r="A3488" t="inlineStr">
+        <is>
+          <t>淳文二手智能设备专营店</t>
+        </is>
+      </c>
+      <c r="B3488" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11777330.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3488" t="inlineStr">
+        <is>
+          <t>深圳市淳文贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3489">
+      <c r="A3489" t="inlineStr">
+        <is>
+          <t>余闲宝二手商品专营店</t>
+        </is>
+      </c>
+      <c r="B3489" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10202468.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3489" t="inlineStr">
+        <is>
+          <t>枣庄余闲宝电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3490">
+      <c r="A3490" t="inlineStr">
+        <is>
+          <t>竞技者旗舰店</t>
+        </is>
+      </c>
+      <c r="B3490" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-825962.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3490" t="inlineStr">
+        <is>
+          <t>深圳市天聚网络科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3491">
+      <c r="A3491" t="inlineStr">
+        <is>
+          <t>威千图京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3491" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000440375.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3491" t="inlineStr">
+        <is>
+          <t>威千图京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3492">
+      <c r="A3492" t="inlineStr">
+        <is>
+          <t>亿色(ESR)京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3492" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000000864.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3492" t="inlineStr">
+        <is>
+          <t>亿色(ESR)京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3493">
+      <c r="A3493" t="inlineStr">
+        <is>
+          <t>欧边旗舰店</t>
+        </is>
+      </c>
+      <c r="B3493" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11675926.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3493" t="inlineStr">
+        <is>
+          <t>深圳市金乐贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3494">
+      <c r="A3494" t="inlineStr">
+        <is>
+          <t>弘慧昇数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3494" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12029627.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3494" t="inlineStr">
+        <is>
+          <t>弘慧昇科技（深圳）有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3495">
+      <c r="A3495" t="inlineStr">
+        <is>
+          <t>韩诺京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3495" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11411398.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3495" t="inlineStr">
+        <is>
+          <t>韩诺京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3496">
+      <c r="A3496" t="inlineStr">
+        <is>
+          <t>Gumei手表旗舰店</t>
+        </is>
+      </c>
+      <c r="B3496" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-711192.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3496" t="inlineStr">
+        <is>
+          <t>深圳市铭辰科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3497">
+      <c r="A3497" t="inlineStr">
+        <is>
+          <t>兵宏京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3497" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12096664.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3497" t="inlineStr">
+        <is>
+          <t>兵宏京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3498">
+      <c r="A3498" t="inlineStr">
+        <is>
+          <t>今舞旗舰店</t>
+        </is>
+      </c>
+      <c r="B3498" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-117540.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3498" t="inlineStr">
+        <is>
+          <t>深圳市今舞数码科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3499">
+      <c r="A3499" t="inlineStr">
+        <is>
+          <t>易科森数码配件专营店</t>
+        </is>
+      </c>
+      <c r="B3499" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-104013.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3499" t="inlineStr">
+        <is>
+          <t>易科森数码配件专营店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3500">
+      <c r="A3500" t="inlineStr">
+        <is>
+          <t>卡伦顿数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3500" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-758478.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3500" t="inlineStr">
+        <is>
+          <t>深圳市好点通讯配件科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3501">
+      <c r="A3501" t="inlineStr">
+        <is>
+          <t>鸿景丰钟表专营店</t>
+        </is>
+      </c>
+      <c r="B3501" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10039183.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3501" t="inlineStr">
+        <is>
+          <t>深圳市鸿景丰贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3502">
+      <c r="A3502" t="inlineStr">
+        <is>
+          <t>带博士梦蝶专卖店</t>
+        </is>
+      </c>
+      <c r="B3502" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11561491.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3502" t="inlineStr">
+        <is>
+          <t>潮州市梦蝶网络科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3503">
+      <c r="A3503" t="inlineStr">
+        <is>
+          <t>泰阁诗雅钟表官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3503" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11178093.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3503" t="inlineStr">
+        <is>
+          <t>广州均尚贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3504">
+      <c r="A3504" t="inlineStr">
+        <is>
+          <t>MSSM京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3504" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000444096.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3504" t="inlineStr">
+        <is>
+          <t>MSSM京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3505">
+      <c r="A3505" t="inlineStr">
+        <is>
+          <t>例米手机配件旗舰店</t>
+        </is>
+      </c>
+      <c r="B3505" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10100355.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3505" t="inlineStr">
+        <is>
+          <t>深圳市南丰实业有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3506">
+      <c r="A3506" t="inlineStr">
+        <is>
+          <t>鸿世昌数码专营店</t>
+        </is>
+      </c>
+      <c r="B3506" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-141180.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3506" t="inlineStr">
+        <is>
+          <t>深圳鸿世昌科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3507">
+      <c r="A3507" t="inlineStr">
+        <is>
+          <t>WEPRO数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3507" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11857512.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3507" t="inlineStr">
+        <is>
+          <t>WEPRO数码旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3508">
+      <c r="A3508" t="inlineStr">
+        <is>
+          <t>威千图旗舰店</t>
+        </is>
+      </c>
+      <c r="B3508" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-110730.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3508" t="inlineStr">
+        <is>
+          <t>深圳兵宏科技发展有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3509">
+      <c r="A3509" t="inlineStr">
+        <is>
+          <t>懿真官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3509" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-596496.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3509" t="inlineStr">
+        <is>
+          <t>深圳市亿刚科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3510">
+      <c r="A3510" t="inlineStr">
+        <is>
+          <t>顽石鱼手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3510" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11870609.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3510" t="inlineStr">
+        <is>
+          <t>厦门顽石鱼电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3511">
+      <c r="A3511" t="inlineStr">
+        <is>
+          <t>中淋顺数码工作室</t>
+        </is>
+      </c>
+      <c r="B3511" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12854891.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3511" t="inlineStr">
+        <is>
+          <t>汕头市潮阳区和平中顺电器商店</t>
+        </is>
+      </c>
+    </row>
+    <row r="3512">
+      <c r="A3512" t="inlineStr">
+        <is>
+          <t>艾么么旗舰店</t>
+        </is>
+      </c>
+      <c r="B3512" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-154887.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3512" t="inlineStr">
+        <is>
+          <t>艾么么旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3513">
+      <c r="A3513" t="inlineStr">
+        <is>
+          <t>木本礼品专营店</t>
+        </is>
+      </c>
+      <c r="B3513" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10125060.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3513" t="inlineStr">
+        <is>
+          <t>襄阳木本井野电子科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3514">
+      <c r="A3514" t="inlineStr">
+        <is>
+          <t>路途中数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3514" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12283469.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3514" t="inlineStr">
+        <is>
+          <t>广州基点网络科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3515">
+      <c r="A3515" t="inlineStr">
+        <is>
+          <t>均尚钟表专营店</t>
+        </is>
+      </c>
+      <c r="B3515" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10158117.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3515" t="inlineStr">
+        <is>
+          <t>广州均尚贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3516">
+      <c r="A3516" t="inlineStr">
+        <is>
+          <t>中沃3C数码京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3516" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000472301.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3516" t="inlineStr">
+        <is>
+          <t>中沃3C数码京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3517">
+      <c r="A3517" t="inlineStr">
+        <is>
+          <t>watchbond京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3517" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000441364.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3517" t="inlineStr">
+        <is>
+          <t>watchbond京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3518">
+      <c r="A3518" t="inlineStr">
+        <is>
+          <t>aresh旗舰店</t>
+        </is>
+      </c>
+      <c r="B3518" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12197116.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3518" t="inlineStr">
+        <is>
+          <t>深圳市博特利电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3519">
+      <c r="A3519" t="inlineStr">
+        <is>
+          <t>港爵旗舰店</t>
+        </is>
+      </c>
+      <c r="B3519" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-596936.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3519" t="inlineStr">
+        <is>
+          <t>深圳凯迪圣表业有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3520">
+      <c r="A3520" t="inlineStr">
+        <is>
+          <t>abdo旗舰店</t>
+        </is>
+      </c>
+      <c r="B3520" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-971335.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3520" t="inlineStr">
+        <is>
+          <t>abdo旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3521">
+      <c r="A3521" t="inlineStr">
+        <is>
+          <t>表带哥京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3521" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12342788.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3521" t="inlineStr">
+        <is>
+          <t>表带哥京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3522">
+      <c r="A3522" t="inlineStr">
+        <is>
+          <t>乐币数码专营店</t>
+        </is>
+      </c>
+      <c r="B3522" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-696780.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3522" t="inlineStr">
+        <is>
+          <t>深圳市乐币网络技术有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3523">
+      <c r="A3523" t="inlineStr">
+        <is>
+          <t>系靓仔数码官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3523" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12464708.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3523" t="inlineStr">
+        <is>
+          <t>弘慧昇科技（深圳）有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3524">
+      <c r="A3524" t="inlineStr">
+        <is>
+          <t>米布斯智能设备旗舰店</t>
+        </is>
+      </c>
+      <c r="B3524" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-190147.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3524" t="inlineStr">
+        <is>
+          <t>南宁米布斯电子科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3525">
+      <c r="A3525" t="inlineStr">
+        <is>
+          <t>雅翔仕手机壳专营店</t>
+        </is>
+      </c>
+      <c r="B3525" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10254170.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3525" t="inlineStr">
+        <is>
+          <t>深圳市雅翔仕科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3526">
+      <c r="A3526" t="inlineStr">
+        <is>
+          <t>荣钥科技经营部</t>
+        </is>
+      </c>
+      <c r="B3526" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12656807.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3526" t="inlineStr">
+        <is>
+          <t>海口龙华吠涞百货商行</t>
+        </is>
+      </c>
+    </row>
+    <row r="3527">
+      <c r="A3527" t="inlineStr">
+        <is>
+          <t>凯雷诺旗舰店</t>
+        </is>
+      </c>
+      <c r="B3527" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13339759.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3527" t="inlineStr">
+        <is>
+          <t>深圳市华耀非凡科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3528">
+      <c r="A3528" t="inlineStr">
+        <is>
+          <t>文曲星智能手表经营部</t>
+        </is>
+      </c>
+      <c r="B3528" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13036219.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3528" t="inlineStr">
+        <is>
+          <t>文曲星智能手表经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3529">
+      <c r="A3529" t="inlineStr">
+        <is>
+          <t>华创数码经营部</t>
+        </is>
+      </c>
+      <c r="B3529" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12693269.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3529" t="inlineStr">
+        <is>
+          <t>华创数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3530">
+      <c r="A3530" t="inlineStr">
+        <is>
+          <t>rurihai官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3530" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-795306.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3530" t="inlineStr">
+        <is>
+          <t>深圳市如日海通讯有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3531">
+      <c r="A3531" t="inlineStr">
+        <is>
+          <t>民瑞数码专营店</t>
+        </is>
+      </c>
+      <c r="B3531" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-813705.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3531" t="inlineStr">
+        <is>
+          <t>深圳市民瑞科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3532">
+      <c r="A3532" t="inlineStr">
+        <is>
+          <t>鸿景丰手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3532" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10024858.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3532" t="inlineStr">
+        <is>
+          <t>深圳市鸿景丰贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3533">
+      <c r="A3533" t="inlineStr">
+        <is>
+          <t>运筹手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3533" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10652578.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3533" t="inlineStr">
+        <is>
+          <t>深圳市运筹贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3534">
+      <c r="A3534" t="inlineStr">
+        <is>
+          <t>墨客钟表专营店</t>
+        </is>
+      </c>
+      <c r="B3534" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10296291.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3534" t="inlineStr">
+        <is>
+          <t>福州探险家贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3535">
+      <c r="A3535" t="inlineStr">
+        <is>
+          <t>艾维斯数码经营部</t>
+        </is>
+      </c>
+      <c r="B3535" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13055907.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3535" t="inlineStr">
+        <is>
+          <t>艾维斯数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3536">
+      <c r="A3536" t="inlineStr">
+        <is>
+          <t>华克数码经营部</t>
+        </is>
+      </c>
+      <c r="B3536" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13054548.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3536" t="inlineStr">
+        <is>
+          <t>华克数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3537">
+      <c r="A3537" t="inlineStr">
+        <is>
+          <t>华京数码经营部</t>
+        </is>
+      </c>
+      <c r="B3537" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13043889.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3537" t="inlineStr">
+        <is>
+          <t>华京数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3538">
+      <c r="A3538" t="inlineStr">
+        <is>
+          <t>百想旗舰店</t>
+        </is>
+      </c>
+      <c r="B3538" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10052592.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3538" t="inlineStr">
+        <is>
+          <t>深圳鸿世昌科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3539">
+      <c r="A3539" t="inlineStr">
+        <is>
+          <t>DY旗舰店</t>
+        </is>
+      </c>
+      <c r="B3539" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-97283.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3539" t="inlineStr">
+        <is>
+          <t>深圳宝儿科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3540">
+      <c r="A3540" t="inlineStr">
+        <is>
+          <t>江铭办公京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3540" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000443183.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3540" t="inlineStr">
+        <is>
+          <t>江铭办公京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3541">
+      <c r="A3541" t="inlineStr">
+        <is>
+          <t>麦爆乐旗舰店</t>
+        </is>
+      </c>
+      <c r="B3541" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12518248.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3541" t="inlineStr">
+        <is>
+          <t>深圳市春米科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3542">
+      <c r="A3542" t="inlineStr">
+        <is>
+          <t>华雷数码经营部</t>
+        </is>
+      </c>
+      <c r="B3542" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13054025.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3542" t="inlineStr">
+        <is>
+          <t>华雷数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3543">
+      <c r="A3543" t="inlineStr">
+        <is>
+          <t>万安兴手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3543" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-802606.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3543" t="inlineStr">
+        <is>
+          <t>深圳市万安兴科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3544">
+      <c r="A3544" t="inlineStr">
+        <is>
+          <t>拾光数码配件小店</t>
+        </is>
+      </c>
+      <c r="B3544" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12500381.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3544" t="inlineStr">
+        <is>
+          <t>拾光数码配件小店：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3545">
+      <c r="A3545" t="inlineStr">
+        <is>
+          <t>执古道手表专营店</t>
+        </is>
+      </c>
+      <c r="B3545" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10355241.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3545" t="inlineStr">
+        <is>
+          <t>执古道手表专营店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3546">
+      <c r="A3546" t="inlineStr">
+        <is>
+          <t>Freeson京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3546" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000004144.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3546" t="inlineStr">
+        <is>
+          <t>Freeson京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3547">
+      <c r="A3547" t="inlineStr">
+        <is>
+          <t>臣颂数码配件专营店</t>
+        </is>
+      </c>
+      <c r="B3547" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11828462.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3547" t="inlineStr">
+        <is>
+          <t>深圳市春米电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3548">
+      <c r="A3548" t="inlineStr">
+        <is>
+          <t>机灵小子数码经营部</t>
+        </is>
+      </c>
+      <c r="B3548" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13052879.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3548" t="inlineStr">
+        <is>
+          <t>机灵小子数码经营部：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3549">
+      <c r="A3549" t="inlineStr">
+        <is>
+          <t>盈泰云谦数码专营店</t>
+        </is>
+      </c>
+      <c r="B3549" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13030685.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3549" t="inlineStr">
+        <is>
+          <t>莆田涵江盈泰云谦商贸有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3550">
+      <c r="A3550" t="inlineStr">
+        <is>
+          <t>探险家数码专营店</t>
+        </is>
+      </c>
+      <c r="B3550" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13147713.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3550" t="inlineStr">
+        <is>
+          <t>福州探险家贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3551">
+      <c r="A3551" t="inlineStr">
+        <is>
+          <t>亚铂尼（ABORNI）京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3551" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10733663.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3551" t="inlineStr">
+        <is>
+          <t>亚铂尼（ABORNI）京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3552">
+      <c r="A3552" t="inlineStr">
+        <is>
+          <t>MK GENTEELZONE京东官方自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3552" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11871288.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3552" t="inlineStr">
+        <is>
+          <t>MK GENTEELZONE京东官方自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3553">
+      <c r="A3553" t="inlineStr">
+        <is>
+          <t>CIGA Design玺佳京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3553" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000104642.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3553" t="inlineStr">
+        <is>
+          <t>CIGA Design玺佳京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3554">
+      <c r="A3554" t="inlineStr">
+        <is>
+          <t>TIMEFOR京东自营卖场型旗舰店</t>
+        </is>
+      </c>
+      <c r="B3554" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13134290.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3554" t="inlineStr">
+        <is>
+          <t>TIMEFOR京东自营卖场型旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3555">
+      <c r="A3555" t="inlineStr">
+        <is>
+          <t>学生智能儿童手表经营部</t>
+        </is>
+      </c>
+      <c r="B3555" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13101970.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3555" t="inlineStr">
+        <is>
+          <t>学生智能儿童手表经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3556">
+      <c r="A3556" t="inlineStr">
+        <is>
+          <t>新创数码经营部</t>
+        </is>
+      </c>
+      <c r="B3556" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-13155944.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3556" t="inlineStr">
+        <is>
+          <t>新创数码经营部：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3557">
+      <c r="A3557" t="inlineStr">
+        <is>
+          <t>爱奇艺音频京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3557" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000103966.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3557" t="inlineStr">
+        <is>
+          <t>爱奇艺音频京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3558">
+      <c r="A3558" t="inlineStr">
+        <is>
+          <t>YUANSEA京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3558" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000447963.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3558" t="inlineStr">
+        <is>
+          <t>YUANSEA京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3559">
+      <c r="A3559" t="inlineStr">
+        <is>
+          <t>魔声（MONSTER）影音京东自营官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3559" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000468673.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3559" t="inlineStr">
+        <is>
+          <t>魔声（MONSTER）影音京东自营官方旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3560">
+      <c r="A3560" t="inlineStr">
+        <is>
+          <t>贝音凯卖场店</t>
+        </is>
+      </c>
+      <c r="B3560" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-671849.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3560" t="inlineStr">
+        <is>
+          <t>河源市金宏锋电子有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3561">
+      <c r="A3561" t="inlineStr">
+        <is>
+          <t>vivo华驰诚专卖店</t>
+        </is>
+      </c>
+      <c r="B3561" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11805115.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3561" t="inlineStr">
+        <is>
+          <t>深圳市华驰诚科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3562">
+      <c r="A3562" t="inlineStr">
+        <is>
+          <t>数码海外京东自营专区</t>
+        </is>
+      </c>
+      <c r="B3562" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000017121.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3562" t="inlineStr">
+        <is>
+          <t>数码海外京东自营专区：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3563">
+      <c r="A3563" t="inlineStr">
+        <is>
+          <t>仪卡旗舰店</t>
+        </is>
+      </c>
+      <c r="B3563" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10237761.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3563" t="inlineStr">
+        <is>
+          <t>泉州弗索普电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3564">
+      <c r="A3564" t="inlineStr">
+        <is>
+          <t>阿帕迪旗舰店</t>
+        </is>
+      </c>
+      <c r="B3564" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10277084.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3564" t="inlineStr">
+        <is>
+          <t>阿帕迪旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3565">
+      <c r="A3565" t="inlineStr">
+        <is>
+          <t>南卡京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3565" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12419339.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3565" t="inlineStr">
+        <is>
+          <t>南卡京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3566">
+      <c r="A3566" t="inlineStr">
+        <is>
+          <t>XTOUR旗舰店</t>
+        </is>
+      </c>
+      <c r="B3566" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12360360.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3566" t="inlineStr">
+        <is>
+          <t>深圳市一刻未来科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3567">
+      <c r="A3567" t="inlineStr">
+        <is>
+          <t>cleer数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3567" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10124592.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3567" t="inlineStr">
+        <is>
+          <t>深圳市平静科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3568">
+      <c r="A3568" t="inlineStr">
+        <is>
+          <t>品存（picun）京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3568" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000333741.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3568" t="inlineStr">
+        <is>
+          <t>品存（picun）京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3569">
+      <c r="A3569" t="inlineStr">
+        <is>
+          <t>HJfulle官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3569" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-918346.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3569" t="inlineStr">
+        <is>
+          <t>东莞市华亿电子科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3570">
+      <c r="A3570" t="inlineStr">
+        <is>
+          <t>艾米尼旗舰店</t>
+        </is>
+      </c>
+      <c r="B3570" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-883052.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3570" t="inlineStr">
+        <is>
+          <t>成都众睿志合商贸有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3571">
+      <c r="A3571" t="inlineStr">
+        <is>
+          <t>佳裕手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3571" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10169430.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3571" t="inlineStr">
+        <is>
+          <t>佳裕手机配件专营店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3572">
+      <c r="A3572" t="inlineStr">
+        <is>
+          <t>华创数码专营店</t>
+        </is>
+      </c>
+      <c r="B3572" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10393791.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3572" t="inlineStr">
+        <is>
+          <t>福州市华创汇峰商贸有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3573">
+      <c r="A3573" t="inlineStr">
+        <is>
+          <t>玛斯珂手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3573" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-899890.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3573" t="inlineStr">
+        <is>
+          <t>深圳市玛斯珂贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3574">
+      <c r="A3574" t="inlineStr">
+        <is>
+          <t>DENREEL数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3574" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11352213.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3574" t="inlineStr">
+        <is>
+          <t>深圳市登睿科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3575">
+      <c r="A3575" t="inlineStr">
+        <is>
+          <t>汉为观止家电卖场店</t>
+        </is>
+      </c>
+      <c r="B3575" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11908760.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3575" t="inlineStr">
+        <is>
+          <t>汉为观止家电卖场店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3576">
+      <c r="A3576" t="inlineStr">
+        <is>
+          <t>果坊手机配件旗舰店</t>
+        </is>
+      </c>
+      <c r="B3576" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10469155.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3576" t="inlineStr">
+        <is>
+          <t>深圳市点亮俊电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3577">
+      <c r="A3577" t="inlineStr">
+        <is>
+          <t>索耐摩京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3577" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11804853.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3577" t="inlineStr">
+        <is>
+          <t>索耐摩京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3578">
+      <c r="A3578" t="inlineStr">
+        <is>
+          <t>永和数码专营店</t>
+        </is>
+      </c>
+      <c r="B3578" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-683731.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3578" t="inlineStr">
+        <is>
+          <t>广州永和电子有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3579">
+      <c r="A3579" t="inlineStr">
+        <is>
+          <t>CHOETECH京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3579" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10157731.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3579" t="inlineStr">
+        <is>
+          <t>CHOETECH京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3580">
+      <c r="A3580" t="inlineStr">
+        <is>
+          <t>chiline聿创专卖店</t>
+        </is>
+      </c>
+      <c r="B3580" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10344070.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3580" t="inlineStr">
+        <is>
+          <t>上海聿创商务咨询有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3581">
+      <c r="A3581" t="inlineStr">
+        <is>
+          <t>FD京喜直营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3581" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000462038.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3581" t="inlineStr">
+        <is>
+          <t>FD京喜直营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3582">
+      <c r="A3582" t="inlineStr">
+        <is>
+          <t>奶小鸭京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3582" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10282271.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3582" t="inlineStr">
+        <is>
+          <t>奶小鸭京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3583">
+      <c r="A3583" t="inlineStr">
+        <is>
+          <t>纽曼（Newmine）影音娱乐旗舰店</t>
+        </is>
+      </c>
+      <c r="B3583" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12983106.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3583" t="inlineStr">
+        <is>
+          <t>纽曼（Newmine）影音娱乐旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3584">
+      <c r="A3584" t="inlineStr">
+        <is>
+          <t>乾禾数码专营店</t>
+        </is>
+      </c>
+      <c r="B3584" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12866077.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3584" t="inlineStr">
+        <is>
+          <t>合肥乾禾网络科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3585">
+      <c r="A3585" t="inlineStr">
+        <is>
+          <t>SANAG芒耀专卖店</t>
+        </is>
+      </c>
+      <c r="B3585" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12993939.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3585" t="inlineStr">
+        <is>
+          <t>上海芒耀科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3586">
+      <c r="A3586" t="inlineStr">
+        <is>
+          <t>德庆启华数码专营店</t>
+        </is>
+      </c>
+      <c r="B3586" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11582550.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3586" t="inlineStr">
+        <is>
+          <t>北京德庆启华科技发展有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3587">
+      <c r="A3587" t="inlineStr">
+        <is>
+          <t>骄盛数码专营店</t>
+        </is>
+      </c>
+      <c r="B3587" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11488167.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3587" t="inlineStr">
+        <is>
+          <t>江西骄盛科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3588">
+      <c r="A3588" t="inlineStr">
+        <is>
+          <t>VCF旗舰店</t>
+        </is>
+      </c>
+      <c r="B3588" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12657810.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3588" t="inlineStr">
+        <is>
+          <t>VCF旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jd/data_files/shop_data.xlsx
+++ b/jd/data_files/shop_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3588"/>
+  <dimension ref="A1:C3687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>瀚木汽车用品专营店：该店铺无证照</t>
+          <t>长沙瀚木贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>嘉宏数码专营店：该店铺无证照</t>
+          <t>深圳市嘉宏信息有限公司</t>
         </is>
       </c>
     </row>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>投洁运动户外专营店：该店铺无证照</t>
+          <t>宿迁投洁贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>超前电器：该店铺无证照</t>
+          <t>新余超前商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -8662,7 +8662,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>乐意购经营部：该店铺无证照</t>
+          <t>西咸新区沣东新城枫林红百货销售店</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>赫骏卧室家具专营店：该店铺无证照</t>
+          <t>天津赫骏贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>京佳户外装备旗舰店：该店铺无证照</t>
+          <t>义乌市登年贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>栀益家居专营店：该店铺无证照</t>
+          <t>天津栀益贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -8934,7 +8934,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>哎千集数码小店：该店铺无证照</t>
+          <t>西山区思思辽百货商行</t>
         </is>
       </c>
     </row>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>酷莓家纺旗舰店：该店铺无证照</t>
+          <t>宜春旭赣达商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>凡杰手机配件小店：该店铺无证照</t>
+          <t>莆田市城厢区霞林街道翁清杰百货零售超市</t>
         </is>
       </c>
     </row>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>鑫智数码配件小店：该店铺无证照</t>
+          <t>西山区鑫智百货商行</t>
         </is>
       </c>
     </row>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>鱼鱼aaq小店：该店铺无证照</t>
+          <t>鱼鱼aaq小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>青睿数码小店：该店铺无证照</t>
+          <t>盘龙区国睿百货商行</t>
         </is>
       </c>
     </row>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>尚腾手机配件专营店：该店铺无证照</t>
+          <t>珠海市尚腾电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>亿普诺安普里保罗专卖店：该店铺无证照</t>
+          <t>新余市安普里保罗电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>守义工业品专营店：该店铺无证照</t>
+          <t>德安县守义电子商务</t>
         </is>
       </c>
     </row>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>男人面容清洁小店：该店铺无证照</t>
+          <t>男人面容清洁小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>游翱通讯小店：该店铺无证照</t>
+          <t>游翱通讯小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>缘达精选文具店：该店铺无证照</t>
+          <t>惠州市缘达医疗器械有限公司</t>
         </is>
       </c>
     </row>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>泓桦居家专营店：该店铺无证照</t>
+          <t>天津泓桦商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>绿商厨具专营店：该店铺无证照</t>
+          <t>天津绿商贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -10855,7 +10855,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>雅越数码小店：该店铺无证照</t>
+          <t>溆浦豪雅越百货店</t>
         </is>
       </c>
     </row>
@@ -10872,7 +10872,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>幕言数码经营部：该店铺无证照</t>
+          <t>幕言数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -11110,7 +11110,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>白耳朵家纺专营店：该店铺无证照</t>
+          <t>焦作白耳朵网络科技有限公司</t>
         </is>
       </c>
     </row>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>柯康户外装备专营店：该店铺无证照</t>
+          <t>天津柯康贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>隆金尚数码小店：该店铺无证照</t>
+          <t>盘龙区尚持耳百货店</t>
         </is>
       </c>
     </row>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>尚稻岱工业品专营店：该店铺无证照</t>
+          <t>莆田市尚稻岱贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>启示录数码专营店：该店铺无证照</t>
+          <t>武汉启示录科技有限公司</t>
         </is>
       </c>
     </row>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>火箭手旗舰店：该店铺无证照</t>
+          <t>上海豫穆实业有限公司</t>
         </is>
       </c>
     </row>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>炜东电商旗舰店：该店铺无证照</t>
+          <t>山东炜东电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -12895,7 +12895,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>金伟华腾数码专营店：该店铺无证照</t>
+          <t>北京金伟华腾贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -12997,7 +12997,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>华玮手机经营部小店：该店铺无证照</t>
+          <t>华玮手机经营部小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>启能手机专营店：该店铺无证照</t>
+          <t>杭州启能通信设备有限公司</t>
         </is>
       </c>
     </row>
@@ -13184,7 +13184,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>华威手机经营部：该店铺无证照</t>
+          <t>华威手机经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -13456,7 +13456,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>一加官方旗舰店：该店铺无证照</t>
+          <t>OPPO广东移动通信有限公司</t>
         </is>
       </c>
     </row>
@@ -13660,7 +13660,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>延续优品二手手机专营店：该店铺无证照</t>
+          <t>深圳市愉快贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -13779,7 +13779,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>娜群数码小店：该店铺无证照</t>
+          <t>秦汉新城娜群百货店</t>
         </is>
       </c>
     </row>
@@ -13830,7 +13830,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>智享飞达数码专营店：该店铺无证照</t>
+          <t>深圳市智享飞达科技有限公司</t>
         </is>
       </c>
     </row>
@@ -13881,7 +13881,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>牧申数码官方旗舰店：该店铺无证照</t>
+          <t>浙江泊欣电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -13898,7 +13898,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>红魔官方旗舰店：该店铺无证照</t>
+          <t>努比亚技术有限公司</t>
         </is>
       </c>
     </row>
@@ -13915,7 +13915,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>佰余数码工作室：该店铺无证照</t>
+          <t>海口龙华琪媛优选百货商行</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>13976901的店铺：该店铺无证照</t>
+          <t>海口龙华区鑫荟潮百货商行</t>
         </is>
       </c>
     </row>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>荣耀博望专卖店：该店铺无证照</t>
+          <t>深圳市博望实业有限公司</t>
         </is>
       </c>
     </row>
@@ -14272,7 +14272,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>CTX手表配件小店：该店铺无证照</t>
+          <t>溆浦玛月韵百货店</t>
         </is>
       </c>
     </row>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>德盛优选小店：该店铺无证照</t>
+          <t>西咸新区沣东新城吉里百货店</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>八诚精选经营部：该店铺无证照</t>
+          <t>盘龙区志合百货商行</t>
         </is>
       </c>
     </row>
@@ -14476,7 +14476,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>倍越二手智能设备专营店：该店铺无证照</t>
+          <t>义乌市倍越贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -14612,7 +14612,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>蓝猩数码小店：该店铺无证照</t>
+          <t>蓝猩数码小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>力美智能小店：该店铺无证照</t>
+          <t>万载县半红作百货店</t>
         </is>
       </c>
     </row>
@@ -14952,7 +14952,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>聚购手机配件小店：该店铺无证照</t>
+          <t>西咸新区沣东新城吉楼百货店</t>
         </is>
       </c>
     </row>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>多多数码商城小店：该店铺无证照</t>
+          <t>多多数码商城小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -15224,7 +15224,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>严选手机配件小店：该店铺无证照</t>
+          <t>盘龙区亮星恒百货店</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>大麦小店：该店铺无证照</t>
+          <t>莆田市秀屿区埭头镇林福华电子产品经营部</t>
         </is>
       </c>
     </row>
@@ -15292,7 +15292,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>丁根数码小店：该店铺无证照</t>
+          <t>义乌市丁根电子商务商行</t>
         </is>
       </c>
     </row>
@@ -15530,7 +15530,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>盛亿数码配件小店：该店铺无证照</t>
+          <t>龙岩市新罗区楷桐约门市部</t>
         </is>
       </c>
     </row>
@@ -15547,7 +15547,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>辉旭数码小店：该店铺无证照</t>
+          <t>官渡区须旭百货商行</t>
         </is>
       </c>
     </row>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>戴为旗舰店：该店铺无证照</t>
+          <t>广州戴为通讯科技有限公司</t>
         </is>
       </c>
     </row>
@@ -15819,7 +15819,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>京联手机经营部：该店铺无证照</t>
+          <t>西咸新区沣东新城元委奇百货销售店</t>
         </is>
       </c>
     </row>
@@ -16040,7 +16040,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>品能数码工作室：该店铺无证照</t>
+          <t>溆浦灿创蔚百货店</t>
         </is>
       </c>
     </row>
@@ -16125,7 +16125,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>乐华科技工作室：该店铺无证照</t>
+          <t>乐华科技工作室：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -16278,7 +16278,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>数码工作室：该店铺无证照</t>
+          <t>数码工作室：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -16329,7 +16329,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>欧因数码小店：该店铺无证照</t>
+          <t>随州市曾都区林琼百货店</t>
         </is>
       </c>
     </row>
@@ -16482,7 +16482,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>琳蕟手机配件经营部：该店铺无证照</t>
+          <t>广州市花都区狮岭远琳贸易商行</t>
         </is>
       </c>
     </row>
@@ -16533,7 +16533,7 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>京友经营部：该店铺无证照</t>
+          <t>磁县刚蓝宏电子经销部</t>
         </is>
       </c>
     </row>
@@ -16550,7 +16550,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>沃尔乐官方旗舰店：该店铺无证照</t>
+          <t>深圳市恒心非凡电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>心悦科技工作室：该店铺无证照</t>
+          <t>铅山县柏鑫数码配件店</t>
         </is>
       </c>
     </row>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>琅誉数码小店：该店铺无证照</t>
+          <t>龙岩市新罗区琅誉登门市部</t>
         </is>
       </c>
     </row>
@@ -16771,7 +16771,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>朋鹏数码小店：该店铺无证照</t>
+          <t>莆田市城厢区东海镇李金火百货零售超市</t>
         </is>
       </c>
     </row>
@@ -16975,7 +16975,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>蘇蘇数码经营部小店：该店铺无证照</t>
+          <t>蘇蘇数码经营部小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -17094,7 +17094,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>优丰意大药房旗舰店：该店铺无证照</t>
+          <t>泰安润世堂大药房有限公司</t>
         </is>
       </c>
     </row>
@@ -17145,7 +17145,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>顺意3C数码配件小店：该店铺无证照</t>
+          <t>莆田市荔城区黄石镇文静百货零售超市</t>
         </is>
       </c>
     </row>
@@ -17604,7 +17604,7 @@
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>绾绾数码小店：该店铺无证照</t>
+          <t>义乌市绾英电子商务商行</t>
         </is>
       </c>
     </row>
@@ -17672,7 +17672,7 @@
       </c>
       <c r="C1015" t="inlineStr">
         <is>
-          <t>帕凡官方旗舰店：该店铺无证照</t>
+          <t>深圳市特科斯科技有限公司</t>
         </is>
       </c>
     </row>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t>领承翔01小店：该店铺无证照</t>
+          <t>万载县领承翔百货店</t>
         </is>
       </c>
     </row>
@@ -17757,7 +17757,7 @@
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>数码时尚小店：该店铺无证照</t>
+          <t>柴桑区位首苏百货店</t>
         </is>
       </c>
     </row>
@@ -17808,7 +17808,7 @@
       </c>
       <c r="C1023" t="inlineStr">
         <is>
-          <t>腕物尚智旗舰店：该店铺无证照</t>
+          <t>三河市玩物尚智科技有限公司</t>
         </is>
       </c>
     </row>
@@ -18080,7 +18080,7 @@
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>诚惠经营部：该店铺无证照</t>
+          <t>西咸新区沣东新城吉玲百货店</t>
         </is>
       </c>
     </row>
@@ -18267,7 +18267,7 @@
       </c>
       <c r="C1050" t="inlineStr">
         <is>
-          <t>达联手机配件经营部：该店铺无证照</t>
+          <t>秦汉新城悯唋百货店</t>
         </is>
       </c>
     </row>
@@ -18403,7 +18403,7 @@
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>腾运手机配件经营部：该店铺无证照</t>
+          <t>西咸新区沣东新城临顺文百货销售店</t>
         </is>
       </c>
     </row>
@@ -18743,7 +18743,7 @@
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>童螺旗舰店：该店铺无证照</t>
+          <t>临沂轩全欣商贸店</t>
         </is>
       </c>
     </row>
@@ -18777,7 +18777,7 @@
       </c>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>鸿飞手机配件经营部小店：该店铺无证照</t>
+          <t>鸿飞手机配件经营部小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -18794,7 +18794,7 @@
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>花花数码12小店：该店铺无证照</t>
+          <t>花花数码12小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -18845,7 +18845,7 @@
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>申冬辰身体防护专营店：该店铺无证照</t>
+          <t>莆田市申冬辰贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -19100,7 +19100,7 @@
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>申冬辰个人防护专营店：该店铺无证照</t>
+          <t>莆田市申冬辰贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -19117,7 +19117,7 @@
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>奥斯御刃具专营店：该店铺无证照</t>
+          <t>莆田市奥斯御贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>数魅官方旗舰店：该店铺无证照</t>
+          <t>成都潮果科技有限公司</t>
         </is>
       </c>
     </row>
@@ -19270,7 +19270,7 @@
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>畅尼数码专营店：该店铺无证照</t>
+          <t>广州畅尼电子有限公司</t>
         </is>
       </c>
     </row>
@@ -19372,7 +19372,7 @@
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>欧姆森二手拍拍专营店：该店铺无证照</t>
+          <t>南京欧姆森科技有限公司</t>
         </is>
       </c>
     </row>
@@ -19423,7 +19423,7 @@
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>BllyBeauty Girl服饰旗舰店：该店铺无证照</t>
+          <t>新余博恩电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -19457,7 +19457,7 @@
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>富耀照明家居经营部：该店铺无证照</t>
+          <t>富耀照明家居经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -19491,7 +19491,7 @@
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>诚翔数码经营部：该店铺无证照</t>
+          <t>诚翔数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>源柏拓二手商品专营店：该店铺无证照</t>
+          <t>深圳市源柏拓科技有限公司</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19746,7 @@
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>鸿讯智能配件工作室：该店铺无证照</t>
+          <t>广州市花都区狮岭鸿讯贸易商行</t>
         </is>
       </c>
     </row>
@@ -19916,7 +19916,7 @@
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>昌硕数码专营店：该店铺无证照</t>
+          <t>武汉华兴昌硕科技有限公司</t>
         </is>
       </c>
     </row>
@@ -19933,7 +19933,7 @@
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>飞越汽车用品小店：该店铺无证照</t>
+          <t>飞越汽车用品小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -20154,7 +20154,7 @@
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>洲妙电料辅件专营店：该店铺无证照</t>
+          <t>湘潭洲妙贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -20511,7 +20511,7 @@
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>希亭汽车装饰专营店：该店铺无证照</t>
+          <t>江西希亭贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -20596,7 +20596,7 @@
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>适格项汽车用品专营店：该店铺无证照</t>
+          <t>莆田适格项贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>京汉耳蜗经营部：该店铺无证照</t>
+          <t>磁县列密静百货店</t>
         </is>
       </c>
     </row>
@@ -20681,7 +20681,7 @@
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>楚汉数码经营部：该店铺无证照</t>
+          <t>楚汉数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -20783,7 +20783,7 @@
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>旭翼手机专营店：该店铺无证照</t>
+          <t>上海旭翼通讯设备有限公司</t>
         </is>
       </c>
     </row>
@@ -21174,7 +21174,7 @@
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>世雄办公设备专营店：该店铺无证照</t>
+          <t>北京世雄伟业科技有限公司</t>
         </is>
       </c>
     </row>
@@ -21259,7 +21259,7 @@
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>京联通达旗舰店：该店铺无证照</t>
+          <t>重庆极兔电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -21446,7 +21446,7 @@
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>荣耀港讯专卖店：该店铺无证照</t>
+          <t>广州市港讯贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -21633,7 +21633,7 @@
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>德品威数码专营店：该店铺无证照</t>
+          <t>深圳市德品威科技有限公司</t>
         </is>
       </c>
     </row>
@@ -21650,7 +21650,7 @@
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>瑞尚数码小店：该店铺无证照</t>
+          <t>曾都区荣斌百货店</t>
         </is>
       </c>
     </row>
@@ -21667,7 +21667,7 @@
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>扬啸智能经营部：该店铺无证照</t>
+          <t>通山县惠集百货超市</t>
         </is>
       </c>
     </row>
@@ -21684,7 +21684,7 @@
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>蒂王绿数据小店：该店铺无证照</t>
+          <t>海口龙华素安怡百货店</t>
         </is>
       </c>
     </row>
@@ -21820,7 +21820,7 @@
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>华烁数码经营部：该店铺无证照</t>
+          <t>秦汉新城车小魏百货店</t>
         </is>
       </c>
     </row>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>戴尔正诚铭专卖店：该店铺无证照</t>
+          <t>福建正诚铭智能设备有限公司</t>
         </is>
       </c>
     </row>
@@ -22160,7 +22160,7 @@
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>展鹏数码经营部：该店铺无证照</t>
+          <t>展鹏数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -22483,7 +22483,7 @@
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>华为顺泰元专卖店：该店铺无证照</t>
+          <t>深圳市顺泰元投资发展有限公司</t>
         </is>
       </c>
     </row>
@@ -22517,7 +22517,7 @@
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>SCOLiB旗舰店：该店铺无证照</t>
+          <t>深圳市明宇联合科技有限公司</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22721,7 @@
       </c>
       <c r="C1312" t="inlineStr">
         <is>
-          <t>惠普数码配件旗舰店：该店铺无证照</t>
+          <t>广州市永赞商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -22942,7 +22942,7 @@
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>小米一诚专卖店：该店铺无证照</t>
+          <t>一诚（浙江）电子商务有限责任公司</t>
         </is>
       </c>
     </row>
@@ -23112,7 +23112,7 @@
       </c>
       <c r="C1335" t="inlineStr">
         <is>
-          <t>嘉鸿数码经营部：该店铺无证照</t>
+          <t>嘉鸿数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -23333,7 +23333,7 @@
       </c>
       <c r="C1348" t="inlineStr">
         <is>
-          <t>犇犇二手数码专营店：该店铺无证照</t>
+          <t>佰特（献县）科贸有限公司</t>
         </is>
       </c>
     </row>
@@ -23724,7 +23724,7 @@
       </c>
       <c r="C1371" t="inlineStr">
         <is>
-          <t>乐美鼎诚电器专营店：该店铺无证照</t>
+          <t>武汉乐美鼎诚商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -23894,7 +23894,7 @@
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>蒙奇奇（monqiqi）官方旗舰店：该店铺无证照</t>
+          <t>深圳市潮流电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="C1400" t="inlineStr">
         <is>
-          <t>铂典旗舰店：该店铺无证照</t>
+          <t>广州永和电子有限公司</t>
         </is>
       </c>
     </row>
@@ -24387,7 +24387,7 @@
       </c>
       <c r="C1410" t="inlineStr">
         <is>
-          <t>水月雨旗舰店：该店铺无证照</t>
+          <t>雷音音频（深圳）有限公司</t>
         </is>
       </c>
     </row>
@@ -24438,7 +24438,7 @@
       </c>
       <c r="C1413" t="inlineStr">
         <is>
-          <t>LAUAG旗舰店：该店铺无证照</t>
+          <t>深圳市科艾达电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -24608,7 +24608,7 @@
       </c>
       <c r="C1423" t="inlineStr">
         <is>
-          <t>潮流配件专营店：该店铺无证照</t>
+          <t>深圳市潮流电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -24676,7 +24676,7 @@
       </c>
       <c r="C1427" t="inlineStr">
         <is>
-          <t>漫步者影音旗舰店：该店铺无证照</t>
+          <t>武汉派代电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -24693,7 +24693,7 @@
       </c>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>倍哆氛数码旗舰店：该店铺无证照</t>
+          <t>深圳市倍哆氛科技有限公司</t>
         </is>
       </c>
     </row>
@@ -24914,7 +24914,7 @@
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>乐语者影音娱乐旗舰店：该店铺无证照</t>
+          <t>深圳市金罡数码有限公司</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>吾爱数码严选工作室：该店铺无证照</t>
+          <t>吾爱数码严选工作室：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -25441,7 +25441,7 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>讯丰源数码专营店：该店铺无证照</t>
+          <t>武汉讯丰源科技有限公司</t>
         </is>
       </c>
     </row>
@@ -25594,7 +25594,7 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>优享数码小店：该店铺无证照</t>
+          <t>优享数码小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -25696,7 +25696,7 @@
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>牯山数码专营店：该店铺无证照</t>
+          <t>温州牯山商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -25849,7 +25849,7 @@
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>创米数码专营店：该店铺无证照</t>
+          <t>深圳市创米网络科技有限公司</t>
         </is>
       </c>
     </row>
@@ -26274,7 +26274,7 @@
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>iKF旗舰店：该店铺无证照</t>
+          <t>东莞市啊呜科技有限公司</t>
         </is>
       </c>
     </row>
@@ -26495,7 +26495,7 @@
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>木清子手机配件专营店：该店铺无证照</t>
+          <t>深圳市木清子电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -26716,7 +26716,7 @@
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>登谷手机配件官方旗舰店：该店铺无证照</t>
+          <t>深圳市芊新电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -27090,7 +27090,7 @@
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>A.MOD旗舰店：该店铺无证照</t>
+          <t>济南部落联盟电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -27158,7 +27158,7 @@
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>漫步者电竞旗舰店：该店铺无证照</t>
+          <t>华平科技（广州）有限公司</t>
         </is>
       </c>
     </row>
@@ -27175,7 +27175,7 @@
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>品控配件优品小店：该店铺无证照</t>
+          <t>品控配件优品小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -27328,7 +27328,7 @@
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>达维琦数码官方旗舰店：该店铺无证照</t>
+          <t>深圳市华铭强科技有限公司</t>
         </is>
       </c>
     </row>
@@ -27498,7 +27498,7 @@
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>南卡官方旗舰店：该店铺无证照</t>
+          <t>深圳市梦趣生活科技有限公司</t>
         </is>
       </c>
     </row>
@@ -27549,7 +27549,7 @@
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>东东二手智能设备小店：该店铺无证照</t>
+          <t>东东二手智能设备小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -27600,7 +27600,7 @@
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>乐度手机配件专营店：该店铺无证照</t>
+          <t>深圳市乐度贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -27838,7 +27838,7 @@
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>致耀手机配件专营店：该店铺无证照</t>
+          <t>深圳市致耀电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -28076,7 +28076,7 @@
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>漫步者时利和专卖店：该店铺无证照</t>
+          <t>徐州市时利和计算机有限公司</t>
         </is>
       </c>
     </row>
@@ -28127,7 +28127,7 @@
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>佰诺数码专营店：该店铺无证照</t>
+          <t>深圳市佰诺贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -28178,7 +28178,7 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>绿联维联特专卖店：该店铺无证照</t>
+          <t>武汉维联特商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -28450,7 +28450,7 @@
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>AKJBL数码旗舰店：该店铺无证照</t>
+          <t>汕头市伟达电子实业有限公司</t>
         </is>
       </c>
     </row>
@@ -28501,7 +28501,7 @@
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>smallstar旗舰店：该店铺无证照</t>
+          <t>深圳市大盛川贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -28654,7 +28654,7 @@
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>泥炭（SoundPEATS）旗舰店：该店铺无证照</t>
+          <t>深圳市星科启创新科技有限公司</t>
         </is>
       </c>
     </row>
@@ -28790,7 +28790,7 @@
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>京耳官方旗舰店：该店铺无证照</t>
+          <t>深圳市康维斯科技有限公司</t>
         </is>
       </c>
     </row>
@@ -28841,7 +28841,7 @@
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>钻盾旗舰店：该店铺无证照</t>
+          <t>深圳眺大贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -28926,7 +28926,7 @@
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>木头人数码专营店：该店铺无证照</t>
+          <t>深圳市木头人数码科技有限公司</t>
         </is>
       </c>
     </row>
@@ -29130,7 +29130,7 @@
       </c>
       <c r="C1689" t="inlineStr">
         <is>
-          <t>海泽创意配件专营店：该店铺无证照</t>
+          <t>上海海泽数码科技有限公司</t>
         </is>
       </c>
     </row>
@@ -29232,7 +29232,7 @@
       </c>
       <c r="C1695" t="inlineStr">
         <is>
-          <t>佰卓 BIZOE旗舰店：该店铺无证照</t>
+          <t>深圳市向南科技有限责任公司</t>
         </is>
       </c>
     </row>
@@ -29266,7 +29266,7 @@
       </c>
       <c r="C1697" t="inlineStr">
         <is>
-          <t>菲耐德官方旗舰店：该店铺无证照</t>
+          <t>深圳市菲耐徳电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -29300,7 +29300,7 @@
       </c>
       <c r="C1699" t="inlineStr">
         <is>
-          <t>囿音旗舰店：该店铺无证照</t>
+          <t>东莞市灵动音悦电子有限公司</t>
         </is>
       </c>
     </row>
@@ -29453,7 +29453,7 @@
       </c>
       <c r="C1708" t="inlineStr">
         <is>
-          <t>弘联数码经营部：该店铺无证照</t>
+          <t>弘联数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -29572,7 +29572,7 @@
       </c>
       <c r="C1715" t="inlineStr">
         <is>
-          <t>ROCK旗舰店：该店铺无证照</t>
+          <t>深圳市前海索菲亚电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -29606,7 +29606,7 @@
       </c>
       <c r="C1717" t="inlineStr">
         <is>
-          <t>诺盛佳数码专营店：该店铺无证照</t>
+          <t>深圳市诺盛佳科技有限公司</t>
         </is>
       </c>
     </row>
@@ -29623,7 +29623,7 @@
       </c>
       <c r="C1718" t="inlineStr">
         <is>
-          <t>不梵官方旗舰店：该店铺无证照</t>
+          <t>深圳市宜见科技有限公司</t>
         </is>
       </c>
     </row>
@@ -29657,7 +29657,7 @@
       </c>
       <c r="C1720" t="inlineStr">
         <is>
-          <t>北喜旗舰店：该店铺无证照</t>
+          <t>深圳市瑞颐贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -29674,7 +29674,7 @@
       </c>
       <c r="C1721" t="inlineStr">
         <is>
-          <t>纽曼手机配件旗舰店：该店铺无证照</t>
+          <t>北京纽曼腾飞科技有限公司</t>
         </is>
       </c>
     </row>
@@ -29759,7 +29759,7 @@
       </c>
       <c r="C1726" t="inlineStr">
         <is>
-          <t>爱婧数码专营店：该店铺无证照</t>
+          <t>上海爱婧电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -29861,7 +29861,7 @@
       </c>
       <c r="C1732" t="inlineStr">
         <is>
-          <t>普臻惠数码专营店：该店铺无证照</t>
+          <t>深圳市普臻惠科技有限公司</t>
         </is>
       </c>
     </row>
@@ -29912,7 +29912,7 @@
       </c>
       <c r="C1735" t="inlineStr">
         <is>
-          <t>诺雪菁诚小店：该店铺无证照</t>
+          <t>诺雪菁诚小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -30048,7 +30048,7 @@
       </c>
       <c r="C1743" t="inlineStr">
         <is>
-          <t>上为数码专营店：该店铺无证照</t>
+          <t>平潭综合实验区上为贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -30218,7 +30218,7 @@
       </c>
       <c r="C1753" t="inlineStr">
         <is>
-          <t>梵娙官方旗舰店：该店铺无证照</t>
+          <t>深圳市璞星电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -30252,7 +30252,7 @@
       </c>
       <c r="C1755" t="inlineStr">
         <is>
-          <t>微意智能设备专营店：该店铺无证照</t>
+          <t>上海微意电子有限公司</t>
         </is>
       </c>
     </row>
@@ -30575,7 +30575,7 @@
       </c>
       <c r="C1774" t="inlineStr">
         <is>
-          <t>瑞德罗曼影音娱乐旗舰店：该店铺无证照</t>
+          <t>厦门裕葆棵科技有限公司</t>
         </is>
       </c>
     </row>
@@ -31102,7 +31102,7 @@
       </c>
       <c r="C1805" t="inlineStr">
         <is>
-          <t>伯格利亚手机配件旗舰店：该店铺无证照</t>
+          <t>泉州伴堡商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -31153,7 +31153,7 @@
       </c>
       <c r="C1808" t="inlineStr">
         <is>
-          <t>S0NY工作室：该店铺无证照</t>
+          <t>S0NY工作室：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -31306,7 +31306,7 @@
       </c>
       <c r="C1817" t="inlineStr">
         <is>
-          <t>特雷索官方旗舰店：该店铺无证照</t>
+          <t>泉州茂创贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -31357,7 +31357,7 @@
       </c>
       <c r="C1820" t="inlineStr">
         <is>
-          <t>山水蓝牙耳机旗舰店：该店铺无证照</t>
+          <t>郑州盈须信息技术有限公司</t>
         </is>
       </c>
     </row>
@@ -31391,7 +31391,7 @@
       </c>
       <c r="C1822" t="inlineStr">
         <is>
-          <t>魅途手机通讯专营店：该店铺无证照</t>
+          <t>安徽魅途电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -31459,7 +31459,7 @@
       </c>
       <c r="C1826" t="inlineStr">
         <is>
-          <t>卡录者旗舰店：该店铺无证照</t>
+          <t>深圳市吉米亚电子有限公司</t>
         </is>
       </c>
     </row>
@@ -31527,7 +31527,7 @@
       </c>
       <c r="C1830" t="inlineStr">
         <is>
-          <t>雷佳电器专营店：该店铺无证照</t>
+          <t>北京雷佳科技发展有限公司</t>
         </is>
       </c>
     </row>
@@ -31578,7 +31578,7 @@
       </c>
       <c r="C1833" t="inlineStr">
         <is>
-          <t>Pioneer先锋旗舰店：该店铺无证照</t>
+          <t>深圳市字节创想科技有限责任公司</t>
         </is>
       </c>
     </row>
@@ -31595,7 +31595,7 @@
       </c>
       <c r="C1834" t="inlineStr">
         <is>
-          <t>飞利浦二八零专卖店：该店铺无证照</t>
+          <t>合肥二八零商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -31629,7 +31629,7 @@
       </c>
       <c r="C1836" t="inlineStr">
         <is>
-          <t>小宠数码专营店：该店铺无证照</t>
+          <t>深圳市小宠生物科技有限公司</t>
         </is>
       </c>
     </row>
@@ -31646,7 +31646,7 @@
       </c>
       <c r="C1837" t="inlineStr">
         <is>
-          <t>SONY数码旗舰店：该店铺无证照</t>
+          <t>福州万城数码有限公司</t>
         </is>
       </c>
     </row>
@@ -31731,7 +31731,7 @@
       </c>
       <c r="C1842" t="inlineStr">
         <is>
-          <t>ESSONIO耳机耳麦旗舰店：该店铺无证照</t>
+          <t>泉州他杉山贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -31765,7 +31765,7 @@
       </c>
       <c r="C1844" t="inlineStr">
         <is>
-          <t>蓝谛数码官方旗舰店：该店铺无证照</t>
+          <t>郑州布瑞林电气设备有限公司</t>
         </is>
       </c>
     </row>
@@ -31782,7 +31782,7 @@
       </c>
       <c r="C1845" t="inlineStr">
         <is>
-          <t>紫猴大药房旗舰店：该店铺无证照</t>
+          <t>庆阳宇隆禾医药有限公司</t>
         </is>
       </c>
     </row>
@@ -31816,7 +31816,7 @@
       </c>
       <c r="C1847" t="inlineStr">
         <is>
-          <t>戈派数码旗舰店：该店铺无证照</t>
+          <t>深圳市品正业电子有限公司</t>
         </is>
       </c>
     </row>
@@ -31833,7 +31833,7 @@
       </c>
       <c r="C1848" t="inlineStr">
         <is>
-          <t>栗优旗舰店：该店铺无证照</t>
+          <t>宿迁市力斐电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -31850,7 +31850,7 @@
       </c>
       <c r="C1849" t="inlineStr">
         <is>
-          <t>众睿志合数码专营店：该店铺无证照</t>
+          <t>成都众睿志合商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -31867,7 +31867,7 @@
       </c>
       <c r="C1850" t="inlineStr">
         <is>
-          <t>图拉斯（TORRAS）旗舰店：该店铺无证照</t>
+          <t>深圳市蓝舞科技有限公司</t>
         </is>
       </c>
     </row>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="C1851" t="inlineStr">
         <is>
-          <t>电火兔旗舰店：该店铺无证照</t>
+          <t>深圳市乐活甄选商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -31952,7 +31952,7 @@
       </c>
       <c r="C1855" t="inlineStr">
         <is>
-          <t>绿联数码旗舰店：该店铺无证照</t>
+          <t>深圳市绿联科技股份有限公司</t>
         </is>
       </c>
     </row>
@@ -32309,7 +32309,7 @@
       </c>
       <c r="C1876" t="inlineStr">
         <is>
-          <t>华耀苏网线上体验店小店：该店铺无证照</t>
+          <t>华耀苏网线上体验店小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -32343,7 +32343,7 @@
       </c>
       <c r="C1878" t="inlineStr">
         <is>
-          <t>御洁优选经营部：该店铺无证照</t>
+          <t>通山县光磊电子经营部</t>
         </is>
       </c>
     </row>
@@ -32360,7 +32360,7 @@
       </c>
       <c r="C1879" t="inlineStr">
         <is>
-          <t>势燊数码专营店：该店铺无证照</t>
+          <t>上海势燊实业有限公司</t>
         </is>
       </c>
     </row>
@@ -32581,7 +32581,7 @@
       </c>
       <c r="C1892" t="inlineStr">
         <is>
-          <t>华粉经营部：该店铺无证照</t>
+          <t>华粉经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -32598,7 +32598,7 @@
       </c>
       <c r="C1893" t="inlineStr">
         <is>
-          <t>效嘉数码小店：该店铺无证照</t>
+          <t>海口龙华鸾易订百货商行</t>
         </is>
       </c>
     </row>
@@ -32683,7 +32683,7 @@
       </c>
       <c r="C1898" t="inlineStr">
         <is>
-          <t>八总精选小店：该店铺无证照</t>
+          <t>盘龙区杰晶百货商行</t>
         </is>
       </c>
     </row>
@@ -32700,7 +32700,7 @@
       </c>
       <c r="C1899" t="inlineStr">
         <is>
-          <t>椰林智能数码经营部：该店铺无证照</t>
+          <t>椰林智能数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -32768,7 +32768,7 @@
       </c>
       <c r="C1903" t="inlineStr">
         <is>
-          <t>万顺数码小店：该店铺无证照</t>
+          <t>袁州区根鑫百货店</t>
         </is>
       </c>
     </row>
@@ -32870,7 +32870,7 @@
       </c>
       <c r="C1909" t="inlineStr">
         <is>
-          <t>意悟绵数码小店：该店铺无证照</t>
+          <t>瑞昌市意悟绵百货店</t>
         </is>
       </c>
     </row>
@@ -33023,7 +33023,7 @@
       </c>
       <c r="C1918" t="inlineStr">
         <is>
-          <t>奈语邦卡尔专卖店：该店铺无证照</t>
+          <t>深圳市邦卡尔科技有限公司</t>
         </is>
       </c>
     </row>
@@ -33278,7 +33278,7 @@
       </c>
       <c r="C1933" t="inlineStr">
         <is>
-          <t>尚马手机配件专营店：该店铺无证照</t>
+          <t>深圳市尚马电子有限公司</t>
         </is>
       </c>
     </row>
@@ -33295,7 +33295,7 @@
       </c>
       <c r="C1934" t="inlineStr">
         <is>
-          <t>音你而动影音工作室：该店铺无证照</t>
+          <t>音你而动影音工作室：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -33346,7 +33346,7 @@
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>音我而动小店：该店铺无证照</t>
+          <t>音我而动小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -33669,7 +33669,7 @@
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>高音质影音工作室：该店铺无证照</t>
+          <t>高音质影音工作室：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -33720,7 +33720,7 @@
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>狄涛数码小店：该店铺无证照</t>
+          <t>义乌市狄涛电子商务商行</t>
         </is>
       </c>
     </row>
@@ -33754,7 +33754,7 @@
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>momoho官方旗舰店：该店铺无证照</t>
+          <t>东莞市浩力升电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -33822,7 +33822,7 @@
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>天梦数码影音专营店：该店铺无证照</t>
+          <t>金华天梦电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -33907,7 +33907,7 @@
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>骆尊旗舰店：该店铺无证照</t>
+          <t>深圳市三雄伟业科技有限公司</t>
         </is>
       </c>
     </row>
@@ -34213,7 +34213,7 @@
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>鸿峨数码专营店：该店铺无证照</t>
+          <t>昆山鸿峨电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -34672,7 +34672,7 @@
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>数码当家小店：该店铺无证照</t>
+          <t>海口龙华区盛安宏百货商行</t>
         </is>
       </c>
     </row>
@@ -34723,7 +34723,7 @@
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>backwin官方旗舰店：该店铺无证照</t>
+          <t>广州倍客维科技有限公司</t>
         </is>
       </c>
     </row>
@@ -34740,7 +34740,7 @@
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>京用数码经营部：该店铺无证照</t>
+          <t>京用数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -34927,7 +34927,7 @@
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>汇丰数码配件小店：该店铺无证照</t>
+          <t>芦淞区元菲百货店</t>
         </is>
       </c>
     </row>
@@ -35131,7 +35131,7 @@
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>婧吉数码专营店：该店铺无证照</t>
+          <t>白山市婧吉贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -35335,7 +35335,7 @@
       </c>
       <c r="C2054" t="inlineStr">
         <is>
-          <t>杰伯顿旗舰店：该店铺无证照</t>
+          <t>深圳市杰伯顿贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -35386,7 +35386,7 @@
       </c>
       <c r="C2057" t="inlineStr">
         <is>
-          <t>升起智能设备经营部：该店铺无证照</t>
+          <t>临沂市兰山区明瑞新百货商店</t>
         </is>
       </c>
     </row>
@@ -35488,7 +35488,7 @@
       </c>
       <c r="C2063" t="inlineStr">
         <is>
-          <t>琳鸾数码专营店：该店铺无证照</t>
+          <t>宜春琳鸾电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -35522,7 +35522,7 @@
       </c>
       <c r="C2065" t="inlineStr">
         <is>
-          <t>美杜手机配件旗舰店：该店铺无证照</t>
+          <t>重庆匠上品商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="C2067" t="inlineStr">
         <is>
-          <t>天才学习智能小店：该店铺无证照</t>
+          <t>天才学习智能小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -35692,7 +35692,7 @@
       </c>
       <c r="C2075" t="inlineStr">
         <is>
-          <t>搞怪猪GAGZ官方旗舰店：该店铺无证照</t>
+          <t>广州德聚科技有限公司</t>
         </is>
       </c>
     </row>
@@ -35726,7 +35726,7 @@
       </c>
       <c r="C2077" t="inlineStr">
         <is>
-          <t>品胜（PISEN）跃同专卖店：该店铺无证照</t>
+          <t>常州市跃同商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -35947,7 +35947,7 @@
       </c>
       <c r="C2090" t="inlineStr">
         <is>
-          <t>露的经营部：该店铺无证照</t>
+          <t>袁州区舒妮百货店</t>
         </is>
       </c>
     </row>
@@ -36015,7 +36015,7 @@
       </c>
       <c r="C2094" t="inlineStr">
         <is>
-          <t>万旺手机配件专营店：该店铺无证照</t>
+          <t>深圳市万旺电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -36049,7 +36049,7 @@
       </c>
       <c r="C2096" t="inlineStr">
         <is>
-          <t>华雄数码经营部：该店铺无证照</t>
+          <t>华雄数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -36253,7 +36253,7 @@
       </c>
       <c r="C2108" t="inlineStr">
         <is>
-          <t>汇智博手机配件专营店：该店铺无证照</t>
+          <t>深圳市汇智博科技有限公司</t>
         </is>
       </c>
     </row>
@@ -36287,7 +36287,7 @@
       </c>
       <c r="C2110" t="inlineStr">
         <is>
-          <t>卓迪官方旗舰店：该店铺无证照</t>
+          <t>深圳市飞皇腾达科技有限公司</t>
         </is>
       </c>
     </row>
@@ -36457,7 +36457,7 @@
       </c>
       <c r="C2120" t="inlineStr">
         <is>
-          <t>湾流官方旗舰店：该店铺无证照</t>
+          <t>湾流实业（深圳）集团有限公司</t>
         </is>
       </c>
     </row>
@@ -36525,7 +36525,7 @@
       </c>
       <c r="C2124" t="inlineStr">
         <is>
-          <t>艾昊手机配件专营店：该店铺无证照</t>
+          <t>深圳市艾昊科技有限公司</t>
         </is>
       </c>
     </row>
@@ -36729,7 +36729,7 @@
       </c>
       <c r="C2136" t="inlineStr">
         <is>
-          <t>金吉玛官方旗舰店：该店铺无证照</t>
+          <t>深圳市智倍科技有限公司</t>
         </is>
       </c>
     </row>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="C2139" t="inlineStr">
         <is>
-          <t>麦诺美智能设备旗舰店：该店铺无证照</t>
+          <t>成都麦柏科技有限公司</t>
         </is>
       </c>
     </row>
@@ -37103,7 +37103,7 @@
       </c>
       <c r="C2158" t="inlineStr">
         <is>
-          <t>菲尔克旗舰店：该店铺无证照</t>
+          <t>深圳六三联购网络科技有限公司</t>
         </is>
       </c>
     </row>
@@ -37239,7 +37239,7 @@
       </c>
       <c r="C2166" t="inlineStr">
         <is>
-          <t>艾莹者官方旗舰店：该店铺无证照</t>
+          <t>深圳市艾昊科技有限公司</t>
         </is>
       </c>
     </row>
@@ -37596,7 +37596,7 @@
       </c>
       <c r="C2187" t="inlineStr">
         <is>
-          <t>博胜讯手机配件旗舰店：该店铺无证照</t>
+          <t>河南花庭港商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -37681,7 +37681,7 @@
       </c>
       <c r="C2192" t="inlineStr">
         <is>
-          <t>飞行蜂官方旗舰店：该店铺无证照</t>
+          <t>合肥酷沃科技有限公司</t>
         </is>
       </c>
     </row>
@@ -37817,7 +37817,7 @@
       </c>
       <c r="C2200" t="inlineStr">
         <is>
-          <t>ULT-unite旗舰店：该店铺无证照</t>
+          <t>四川省优籁特电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -37987,7 +37987,7 @@
       </c>
       <c r="C2210" t="inlineStr">
         <is>
-          <t>效趣官方旗舰店：该店铺无证照</t>
+          <t>广州市以驰科技有限公司</t>
         </is>
       </c>
     </row>
@@ -38021,7 +38021,7 @@
       </c>
       <c r="C2212" t="inlineStr">
         <is>
-          <t>马拉松旗舰店：该店铺无证照</t>
+          <t>深圳电魔术科技有限公司</t>
         </is>
       </c>
     </row>
@@ -38123,7 +38123,7 @@
       </c>
       <c r="C2218" t="inlineStr">
         <is>
-          <t>飞利浦半音专卖店：该店铺无证照</t>
+          <t>合肥半音电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -38174,7 +38174,7 @@
       </c>
       <c r="C2221" t="inlineStr">
         <is>
-          <t>绿普数码专营店：该店铺无证照</t>
+          <t>广州绿普电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -38242,7 +38242,7 @@
       </c>
       <c r="C2225" t="inlineStr">
         <is>
-          <t>思思智能小店：该店铺无证照</t>
+          <t>思思智能小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -38327,7 +38327,7 @@
       </c>
       <c r="C2230" t="inlineStr">
         <is>
-          <t>弘鑫数码配件专营店：该店铺无证照</t>
+          <t>深圳市弘鑫新能源有限公司</t>
         </is>
       </c>
     </row>
@@ -38514,7 +38514,7 @@
       </c>
       <c r="C2241" t="inlineStr">
         <is>
-          <t>可晴手机配件专营店：该店铺无证照</t>
+          <t>珠海市可晴电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -38633,7 +38633,7 @@
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t>品畅手机配件专营店：该店铺无证照</t>
+          <t>深圳市品畅科技有限公司</t>
         </is>
       </c>
     </row>
@@ -38769,7 +38769,7 @@
       </c>
       <c r="C2256" t="inlineStr">
         <is>
-          <t>ITDK旗舰店：该店铺无证照</t>
+          <t>深圳市思特拉电子有限公司</t>
         </is>
       </c>
     </row>
@@ -38922,7 +38922,7 @@
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>慧采影音数码经营部：该店铺无证照</t>
+          <t>慧采影音数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -39058,7 +39058,7 @@
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>酷泽尔官方旗舰店：该店铺无证照</t>
+          <t>深圳市酷泽尔科技有限公司</t>
         </is>
       </c>
     </row>
@@ -39126,7 +39126,7 @@
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>智倍手机配件专营店：该店铺无证照</t>
+          <t>深圳市智倍科技有限公司</t>
         </is>
       </c>
     </row>
@@ -39160,7 +39160,7 @@
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>一鸣数码666小店：该店铺无证照</t>
+          <t>海口秀英舒羽清百货店</t>
         </is>
       </c>
     </row>
@@ -39313,7 +39313,7 @@
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>捷童数码专营店：该店铺无证照</t>
+          <t>上海捷童实业有限公司</t>
         </is>
       </c>
     </row>
@@ -39551,7 +39551,7 @@
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>墨一旗舰店：该店铺无证照</t>
+          <t>湛江市芯光贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -39687,7 +39687,7 @@
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>昌常数码专营店：该店铺无证照</t>
+          <t>白山昌常贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -39738,7 +39738,7 @@
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>千幕小店：该店铺无证照</t>
+          <t>千幕小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -39806,7 +39806,7 @@
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>精度手机配件专营店：该店铺无证照</t>
+          <t>广州精度贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -39874,7 +39874,7 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>优楷乐手机配件专营店：该店铺无证照</t>
+          <t>深圳市优楷乐科技有限公司</t>
         </is>
       </c>
     </row>
@@ -39925,7 +39925,7 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>冠中将美思莱登专卖店：该店铺无证照</t>
+          <t>珠海市美思莱登科技有限公司</t>
         </is>
       </c>
     </row>
@@ -39959,7 +39959,7 @@
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>寅奕旗舰店：该店铺无证照</t>
+          <t>南昌恩茁电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -40027,7 +40027,7 @@
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>肯茂旗舰店：该店铺无证照</t>
+          <t>深圳市福公贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -40146,7 +40146,7 @@
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>OPPO酷炫专卖店：该店铺无证照</t>
+          <t>杭州酷炫科技有限公司</t>
         </is>
       </c>
     </row>
@@ -40214,7 +40214,7 @@
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>主典旗舰店：该店铺无证照</t>
+          <t>深圳市富源通实业有限公司</t>
         </is>
       </c>
     </row>
@@ -40299,7 +40299,7 @@
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>友加数码专营店：该店铺无证照</t>
+          <t>东莞市友加电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -40605,7 +40605,7 @@
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>千浔影音数码经营部：该店铺无证照</t>
+          <t>千浔影音数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -40945,7 +40945,7 @@
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>聚京采手机配件专营店：该店铺无证照</t>
+          <t>珠海市聚京采贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -40996,7 +40996,7 @@
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>慧鑫智能手表小店：该店铺无证照</t>
+          <t>慧鑫智能手表小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -41047,7 +41047,7 @@
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>魅影之声数码拼购店：该店铺无证照</t>
+          <t>魅影之声数码拼购店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -41064,7 +41064,7 @@
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>耀腾医疗保健专营店：该店铺无证照</t>
+          <t>新余耀腾贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -41098,7 +41098,7 @@
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>同扬科技小店：该店铺无证照</t>
+          <t>濂溪区体点百货店</t>
         </is>
       </c>
     </row>
@@ -41183,7 +41183,7 @@
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>libayolo数码旗舰店：该店铺无证照</t>
+          <t>泉州书傲贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -41302,7 +41302,7 @@
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>飞利浦PHILIPS线歌专卖店：该店铺无证照</t>
+          <t>杭州线歌科技有限公司</t>
         </is>
       </c>
     </row>
@@ -41404,7 +41404,7 @@
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>仙易影音娱乐专营店：该店铺无证照</t>
+          <t>陕西仙易电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -41455,7 +41455,7 @@
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>一上数码经营部：该店铺无证照</t>
+          <t>一上数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -41574,7 +41574,7 @@
       </c>
       <c r="C2421" t="inlineStr">
         <is>
-          <t>沃霖官方旗舰店：该店铺无证照</t>
+          <t>深圳市沃霖科技有限公司</t>
         </is>
       </c>
     </row>
@@ -41625,7 +41625,7 @@
       </c>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>精选好物放心购专区小店：该店铺无证照</t>
+          <t>精选好物放心购专区小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -41744,7 +41744,7 @@
       </c>
       <c r="C2431" t="inlineStr">
         <is>
-          <t>露的经营部小店：该店铺无证照</t>
+          <t>露的经营部小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -42016,7 +42016,7 @@
       </c>
       <c r="C2447" t="inlineStr">
         <is>
-          <t>卉满南山旗舰店：该店铺无证照</t>
+          <t>吉林午酉商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -42084,7 +42084,7 @@
       </c>
       <c r="C2451" t="inlineStr">
         <is>
-          <t>亿家通官方旗舰店：该店铺无证照</t>
+          <t>北京万家通电讯设备有限公司</t>
         </is>
       </c>
     </row>
@@ -42288,7 +42288,7 @@
       </c>
       <c r="C2463" t="inlineStr">
         <is>
-          <t>普利邦数码配件旗舰店：该店铺无证照</t>
+          <t>厦门栀虞姚然科技有限公司</t>
         </is>
       </c>
     </row>
@@ -42441,7 +42441,7 @@
       </c>
       <c r="C2472" t="inlineStr">
         <is>
-          <t>逆流智能设备专营店：该店铺无证照</t>
+          <t>安徽逆流电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -42492,7 +42492,7 @@
       </c>
       <c r="C2475" t="inlineStr">
         <is>
-          <t>子越数码专营店：该店铺无证照</t>
+          <t>启东市子越电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -42645,7 +42645,7 @@
       </c>
       <c r="C2484" t="inlineStr">
         <is>
-          <t>森匠旗舰店：该店铺无证照</t>
+          <t>新余市瑞斯拜电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -42747,7 +42747,7 @@
       </c>
       <c r="C2490" t="inlineStr">
         <is>
-          <t>奥格斯床上用品专营店：该店铺无证照</t>
+          <t>广州奥格斯商品贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -43206,7 +43206,7 @@
       </c>
       <c r="C2517" t="inlineStr">
         <is>
-          <t>U&amp;G官方旗舰店：该店铺无证照</t>
+          <t>深圳市雨果资讯科技有限公司</t>
         </is>
       </c>
     </row>
@@ -43223,7 +43223,7 @@
       </c>
       <c r="C2518" t="inlineStr">
         <is>
-          <t>Linwen硬盘小店：该店铺无证照</t>
+          <t>Linwen硬盘小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -43342,7 +43342,7 @@
       </c>
       <c r="C2525" t="inlineStr">
         <is>
-          <t>MHD通用数码工作室：该店铺无证照</t>
+          <t>MHD通用数码工作室：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -43393,7 +43393,7 @@
       </c>
       <c r="C2528" t="inlineStr">
         <is>
-          <t>点读笔智能设备小店：该店铺无证照</t>
+          <t>点读笔智能设备小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -43427,7 +43427,7 @@
       </c>
       <c r="C2530" t="inlineStr">
         <is>
-          <t>HAWEI智选小店：该店铺无证照</t>
+          <t>HAWEI智选小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -43461,7 +43461,7 @@
       </c>
       <c r="C2532" t="inlineStr">
         <is>
-          <t>大眼娃数码专营店：该店铺无证照</t>
+          <t>深圳市大眼娃科技有限公司</t>
         </is>
       </c>
     </row>
@@ -43529,7 +43529,7 @@
       </c>
       <c r="C2536" t="inlineStr">
         <is>
-          <t>SHUM硬盘小店：该店铺无证照</t>
+          <t>万载县茫鸣百货店</t>
         </is>
       </c>
     </row>
@@ -43648,7 +43648,7 @@
       </c>
       <c r="C2543" t="inlineStr">
         <is>
-          <t>精品电子衡器小店：该店铺无证照</t>
+          <t>精品电子衡器小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -43716,7 +43716,7 @@
       </c>
       <c r="C2547" t="inlineStr">
         <is>
-          <t>磁音外设产品专营店：该店铺无证照</t>
+          <t>深圳市磁音科技有限公司</t>
         </is>
       </c>
     </row>
@@ -43818,7 +43818,7 @@
       </c>
       <c r="C2553" t="inlineStr">
         <is>
-          <t>电巨人旗舰店：该店铺无证照</t>
+          <t>新尚创实业（深圳）有限公司</t>
         </is>
       </c>
     </row>
@@ -43903,7 +43903,7 @@
       </c>
       <c r="C2558" t="inlineStr">
         <is>
-          <t>京齐官方旗舰店：该店铺无证照</t>
+          <t>深圳市大眼娃科技有限公司</t>
         </is>
       </c>
     </row>
@@ -44090,7 +44090,7 @@
       </c>
       <c r="C2569" t="inlineStr">
         <is>
-          <t>Black Bang手表旗舰店：该店铺无证照</t>
+          <t>福州德森特电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -44175,7 +44175,7 @@
       </c>
       <c r="C2574" t="inlineStr">
         <is>
-          <t>兰享旗舰店：该店铺无证照</t>
+          <t>深圳零风科技有限公司</t>
         </is>
       </c>
     </row>
@@ -44277,7 +44277,7 @@
       </c>
       <c r="C2580" t="inlineStr">
         <is>
-          <t>萨姆家居日用专营店：该店铺无证照</t>
+          <t>天津萨姆贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -44413,7 +44413,7 @@
       </c>
       <c r="C2588" t="inlineStr">
         <is>
-          <t>BHO旗舰店：该店铺无证照</t>
+          <t>深圳兵宏科技发展有限公司</t>
         </is>
       </c>
     </row>
@@ -44532,7 +44532,7 @@
       </c>
       <c r="C2595" t="inlineStr">
         <is>
-          <t>筱然数码工作室：该店铺无证照</t>
+          <t>筱然数码工作室：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -44600,7 +44600,7 @@
       </c>
       <c r="C2599" t="inlineStr">
         <is>
-          <t>益博思旗舰店：该店铺无证照</t>
+          <t>深圳市金吉数码科技有限公司</t>
         </is>
       </c>
     </row>
@@ -44770,7 +44770,7 @@
       </c>
       <c r="C2609" t="inlineStr">
         <is>
-          <t>个护健康总经营部：该店铺无证照</t>
+          <t>海口龙华孛雅青百货店</t>
         </is>
       </c>
     </row>
@@ -44821,7 +44821,7 @@
       </c>
       <c r="C2612" t="inlineStr">
         <is>
-          <t>EISSCCE官方旗舰店：该店铺无证照</t>
+          <t>深圳市世通兆利商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -44872,7 +44872,7 @@
       </c>
       <c r="C2615" t="inlineStr">
         <is>
-          <t>洲峥幕数码办公小店：该店铺无证照</t>
+          <t>万载县洲峥幕百货店</t>
         </is>
       </c>
     </row>
@@ -44940,7 +44940,7 @@
       </c>
       <c r="C2619" t="inlineStr">
         <is>
-          <t>狮护旗舰店：该店铺无证照</t>
+          <t>武汉恩寇商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -45059,7 +45059,7 @@
       </c>
       <c r="C2626" t="inlineStr">
         <is>
-          <t>魅众官方旗舰店：该店铺无证照</t>
+          <t>深圳市深能隆数码有限公司</t>
         </is>
       </c>
     </row>
@@ -45654,7 +45654,7 @@
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>RLSOCO官方旗舰店：该店铺无证照</t>
+          <t>东莞市瑞利箱包有限公司</t>
         </is>
       </c>
     </row>
@@ -46623,7 +46623,7 @@
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>柒玥伍手机配件专营店：该店铺无证照</t>
+          <t>重庆柒玥伍商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -46742,7 +46742,7 @@
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>贝壳莫克手机配件旗舰店：该店铺无证照</t>
+          <t>运城市盐湖区吉禾电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -46980,7 +46980,7 @@
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>科诺克旗舰店：该店铺无证照</t>
+          <t>深圳市科讯腾科技有限公司</t>
         </is>
       </c>
     </row>
@@ -47354,7 +47354,7 @@
       </c>
       <c r="C2761" t="inlineStr">
         <is>
-          <t>森沐数码专营店：该店铺无证照</t>
+          <t>曹县森沐电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -47405,7 +47405,7 @@
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>闪步旗舰店：该店铺无证照</t>
+          <t>深圳市诚誉科技发展有限公司</t>
         </is>
       </c>
     </row>
@@ -47473,7 +47473,7 @@
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>吉格顿旗舰店：该店铺无证照</t>
+          <t>深圳市吉格顿贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -47524,7 +47524,7 @@
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>巨鲸手机配件专营店：该店铺无证照</t>
+          <t>深圳市巨鲸电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -47575,7 +47575,7 @@
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>凌伏旗舰店：该店铺无证照</t>
+          <t>广州耀扬商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -47660,7 +47660,7 @@
       </c>
       <c r="C2779" t="inlineStr">
         <is>
-          <t>韩豹旗舰店：该店铺无证照</t>
+          <t>深圳市巨鲸电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -47711,7 +47711,7 @@
       </c>
       <c r="C2782" t="inlineStr">
         <is>
-          <t>VEKJ官方旗舰店：该店铺无证照</t>
+          <t>深圳市维克吉科技有限公司</t>
         </is>
       </c>
     </row>
@@ -47932,7 +47932,7 @@
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>艾徐官方旗舰店：该店铺无证照</t>
+          <t>广州市以驰科技有限公司</t>
         </is>
       </c>
     </row>
@@ -47949,7 +47949,7 @@
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>寻膜记旗舰店：该店铺无证照</t>
+          <t>寻膜记（云南）科技有限公司</t>
         </is>
       </c>
     </row>
@@ -47966,7 +47966,7 @@
       </c>
       <c r="C2797" t="inlineStr">
         <is>
-          <t>昊微旗舰店：该店铺无证照</t>
+          <t>深圳市优楷乐科技有限公司</t>
         </is>
       </c>
     </row>
@@ -48170,7 +48170,7 @@
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>mijv旗舰店：该店铺无证照</t>
+          <t>涿州市相如电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -48374,7 +48374,7 @@
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>京苏小店：该店铺无证照</t>
+          <t>京苏小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -48595,7 +48595,7 @@
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>塔菲克官方旗舰店：该店铺无证照</t>
+          <t>深圳市果航科技有限公司</t>
         </is>
       </c>
     </row>
@@ -48714,7 +48714,7 @@
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>尚达手机配件专营店：该店铺无证照</t>
+          <t>深圳市顺源尚达科技有限公司</t>
         </is>
       </c>
     </row>
@@ -49122,7 +49122,7 @@
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>永玖小店：该店铺无证照</t>
+          <t>袁州区昕优百货店</t>
         </is>
       </c>
     </row>
@@ -49241,7 +49241,7 @@
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>霍邦旗舰店：该店铺无证照</t>
+          <t>广州凌伏科技有限公司</t>
         </is>
       </c>
     </row>
@@ -49683,7 +49683,7 @@
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>嘉泽数码专营店：该店铺无证照</t>
+          <t>徐州嘉泽通讯科技有限公司</t>
         </is>
       </c>
     </row>
@@ -49768,7 +49768,7 @@
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>华铭强手机通讯店：该店铺无证照</t>
+          <t>深圳市华铭强科技有限公司</t>
         </is>
       </c>
     </row>
@@ -50057,7 +50057,7 @@
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>挚客数码配件官方旗舰店：该店铺无证照</t>
+          <t>深圳市挚客科技有限公司</t>
         </is>
       </c>
     </row>
@@ -50074,7 +50074,7 @@
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>飞利浦线歌专卖店：该店铺无证照</t>
+          <t>杭州线歌科技有限公司</t>
         </is>
       </c>
     </row>
@@ -50142,7 +50142,7 @@
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>飞毛腿旗舰店：该店铺无证照</t>
+          <t>飞毛腿电池有限公司</t>
         </is>
       </c>
     </row>
@@ -50363,7 +50363,7 @@
       </c>
       <c r="C2938" t="inlineStr">
         <is>
-          <t>迷虎官方旗舰店：该店铺无证照</t>
+          <t>深圳市正大华远贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -50465,7 +50465,7 @@
       </c>
       <c r="C2944" t="inlineStr">
         <is>
-          <t>中景手机配件专营店：该店铺无证照</t>
+          <t>中景（深圳）实业有限公司</t>
         </is>
       </c>
     </row>
@@ -50720,7 +50720,7 @@
       </c>
       <c r="C2959" t="inlineStr">
         <is>
-          <t>白狗官方旗舰店：该店铺无证照</t>
+          <t>长沙黑狼科技有限公司</t>
         </is>
       </c>
     </row>
@@ -50822,7 +50822,7 @@
       </c>
       <c r="C2965" t="inlineStr">
         <is>
-          <t>季烁旗舰店：该店铺无证照</t>
+          <t>茂名万合鑫国际贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -51315,7 +51315,7 @@
       </c>
       <c r="C2994" t="inlineStr">
         <is>
-          <t>精通科技经营部：该店铺无证照</t>
+          <t>精通科技经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -51383,7 +51383,7 @@
       </c>
       <c r="C2998" t="inlineStr">
         <is>
-          <t>亦恒手机配件专营店：该店铺无证照</t>
+          <t>东莞市亦恒电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -51451,7 +51451,7 @@
       </c>
       <c r="C3002" t="inlineStr">
         <is>
-          <t>诺凯威电脑办公专营店：该店铺无证照</t>
+          <t>深圳市诺凯威科技有限公司</t>
         </is>
       </c>
     </row>
@@ -51502,7 +51502,7 @@
       </c>
       <c r="C3005" t="inlineStr">
         <is>
-          <t>骉王数码专营店：该店铺无证照</t>
+          <t>南昌骉王贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -51638,7 +51638,7 @@
       </c>
       <c r="C3013" t="inlineStr">
         <is>
-          <t>PLUFY数码旗舰店：该店铺无证照</t>
+          <t>厦门优童美商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -51910,7 +51910,7 @@
       </c>
       <c r="C3029" t="inlineStr">
         <is>
-          <t>盛信手机配件小店：该店铺无证照</t>
+          <t>曾都区群金百货店</t>
         </is>
       </c>
     </row>
@@ -52046,7 +52046,7 @@
       </c>
       <c r="C3037" t="inlineStr">
         <is>
-          <t>纵羽小店：该店铺无证照</t>
+          <t>纵羽小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -52233,7 +52233,7 @@
       </c>
       <c r="C3048" t="inlineStr">
         <is>
-          <t>万隆欣旗舰店：该店铺无证照</t>
+          <t>深圳市成星达科技有限公司</t>
         </is>
       </c>
     </row>
@@ -52369,7 +52369,7 @@
       </c>
       <c r="C3056" t="inlineStr">
         <is>
-          <t>薏和善手机配件旗舰店：该店铺无证照</t>
+          <t>深圳市迪诺斯数码电子有限公司</t>
         </is>
       </c>
     </row>
@@ -52539,7 +52539,7 @@
       </c>
       <c r="C3066" t="inlineStr">
         <is>
-          <t>潮凌手机配件旗舰店：该店铺无证照</t>
+          <t>深圳市达迪尔科技有限公司</t>
         </is>
       </c>
     </row>
@@ -52675,7 +52675,7 @@
       </c>
       <c r="C3074" t="inlineStr">
         <is>
-          <t>安伏乐手机配件旗舰店：该店铺无证照</t>
+          <t>广州致贤科技有限公司</t>
         </is>
       </c>
     </row>
@@ -52726,7 +52726,7 @@
       </c>
       <c r="C3077" t="inlineStr">
         <is>
-          <t>民兴电线电缆官方旗舰店：该店铺无证照</t>
+          <t>东莞市民兴电缆有限公司</t>
         </is>
       </c>
     </row>
@@ -52794,7 +52794,7 @@
       </c>
       <c r="C3081" t="inlineStr">
         <is>
-          <t>SMOVES官方旗舰店：该店铺无证照</t>
+          <t>深圳市叁水科技有限公司</t>
         </is>
       </c>
     </row>
@@ -52828,7 +52828,7 @@
       </c>
       <c r="C3083" t="inlineStr">
         <is>
-          <t>赛威顿汽车用品旗舰店：该店铺无证照</t>
+          <t>佛山市鸿盛科技有限公司</t>
         </is>
       </c>
     </row>
@@ -53015,7 +53015,7 @@
       </c>
       <c r="C3094" t="inlineStr">
         <is>
-          <t>浦乐飞数码专营店：该店铺无证照</t>
+          <t>泉州浦乐飞电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -53066,7 +53066,7 @@
       </c>
       <c r="C3097" t="inlineStr">
         <is>
-          <t>ideo旗舰店：该店铺无证照</t>
+          <t>深圳市南方瑞通科技有限公司</t>
         </is>
       </c>
     </row>
@@ -53219,7 +53219,7 @@
       </c>
       <c r="C3106" t="inlineStr">
         <is>
-          <t>盈讯手机配件专营店：该店铺无证照</t>
+          <t>杭州盈讯电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -53270,7 +53270,7 @@
       </c>
       <c r="C3109" t="inlineStr">
         <is>
-          <t>真科官方旗舰店：该店铺无证照</t>
+          <t>深圳市科灵电子有限公司</t>
         </is>
       </c>
     </row>
@@ -53916,7 +53916,7 @@
       </c>
       <c r="C3147" t="inlineStr">
         <is>
-          <t>清特农资专营店：该店铺无证照</t>
+          <t>宿迁清特电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -53984,7 +53984,7 @@
       </c>
       <c r="C3151" t="inlineStr">
         <is>
-          <t>隽悦旗舰店：该店铺无证照</t>
+          <t>潮州市七步诗科技有限公司</t>
         </is>
       </c>
     </row>
@@ -54154,7 +54154,7 @@
       </c>
       <c r="C3161" t="inlineStr">
         <is>
-          <t>MSSM钟表旗舰店：该店铺无证照</t>
+          <t>揭阳市牧森商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -54545,7 +54545,7 @@
       </c>
       <c r="C3184" t="inlineStr">
         <is>
-          <t>闪膜数码小店：该店铺无证照</t>
+          <t>官渡区鹏登百货商行</t>
         </is>
       </c>
     </row>
@@ -54698,7 +54698,7 @@
       </c>
       <c r="C3193" t="inlineStr">
         <is>
-          <t>将顿官方旗舰店：该店铺无证照</t>
+          <t>深圳市浩霸科技有限公司</t>
         </is>
       </c>
     </row>
@@ -54715,7 +54715,7 @@
       </c>
       <c r="C3194" t="inlineStr">
         <is>
-          <t>富源通手机配件专营店：该店铺无证照</t>
+          <t>深圳市富源通实业有限公司</t>
         </is>
       </c>
     </row>
@@ -54732,7 +54732,7 @@
       </c>
       <c r="C3195" t="inlineStr">
         <is>
-          <t>冠盈数码专营店：该店铺无证照</t>
+          <t>深圳市冠盈数码科技有限公司</t>
         </is>
       </c>
     </row>
@@ -54783,7 +54783,7 @@
       </c>
       <c r="C3198" t="inlineStr">
         <is>
-          <t>储技官方旗舰店：该店铺无证照</t>
+          <t>深圳尚浩王电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -55157,7 +55157,7 @@
       </c>
       <c r="C3220" t="inlineStr">
         <is>
-          <t>博威腾官方旗舰店：该店铺无证照</t>
+          <t>深圳市博利威科技有限公司</t>
         </is>
       </c>
     </row>
@@ -55293,7 +55293,7 @@
       </c>
       <c r="C3228" t="inlineStr">
         <is>
-          <t>墨影手机通讯旗舰店：该店铺无证照</t>
+          <t>扬州品犇商贸有限公司</t>
         </is>
       </c>
     </row>
@@ -55327,7 +55327,7 @@
       </c>
       <c r="C3230" t="inlineStr">
         <is>
-          <t>黎临官方旗舰店：该店铺无证照</t>
+          <t>南阳跃铭数码科技有限公司</t>
         </is>
       </c>
     </row>
@@ -55463,7 +55463,7 @@
       </c>
       <c r="C3238" t="inlineStr">
         <is>
-          <t>诺邦士官方旗舰店：该店铺无证照</t>
+          <t>深圳市小赞科技有限公司</t>
         </is>
       </c>
     </row>
@@ -55497,7 +55497,7 @@
       </c>
       <c r="C3240" t="inlineStr">
         <is>
-          <t>QCLCLQ旗舰店：该店铺无证照</t>
+          <t>宿迁溪众峰电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -55514,7 +55514,7 @@
       </c>
       <c r="C3241" t="inlineStr">
         <is>
-          <t>纽曼车载充电器旗舰店：该店铺无证照</t>
+          <t>东莞市金蟾鱼电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -55973,7 +55973,7 @@
       </c>
       <c r="C3268" t="inlineStr">
         <is>
-          <t>喜红喜旗舰店：该店铺无证照</t>
+          <t>深圳市众里科技有限公司</t>
         </is>
       </c>
     </row>
@@ -56398,7 +56398,7 @@
       </c>
       <c r="C3293" t="inlineStr">
         <is>
-          <t>天一盛华旗舰店：该店铺无证照</t>
+          <t>金华天梦电子科技有限公司</t>
         </is>
       </c>
     </row>
@@ -56483,7 +56483,7 @@
       </c>
       <c r="C3298" t="inlineStr">
         <is>
-          <t>酷思麦手机配件专营店：该店铺无证照</t>
+          <t>深圳市酷思麦科技有限公司</t>
         </is>
       </c>
     </row>
@@ -56585,7 +56585,7 @@
       </c>
       <c r="C3304" t="inlineStr">
         <is>
-          <t>特尔信数码配件旗舰店：该店铺无证照</t>
+          <t>深圳市金雨禾科技有限公司</t>
         </is>
       </c>
     </row>
@@ -56687,7 +56687,7 @@
       </c>
       <c r="C3310" t="inlineStr">
         <is>
-          <t>悦研手机配件旗舰店：该店铺无证照</t>
+          <t>东莞市福探文具有限公司</t>
         </is>
       </c>
     </row>
@@ -56959,7 +56959,7 @@
       </c>
       <c r="C3326" t="inlineStr">
         <is>
-          <t>霸刚手机通讯专营店：该店铺无证照</t>
+          <t>江苏霸刚环保科技有限公司</t>
         </is>
       </c>
     </row>
@@ -57112,7 +57112,7 @@
       </c>
       <c r="C3335" t="inlineStr">
         <is>
-          <t>tople旗舰店：该店铺无证照</t>
+          <t>深圳市派德皮具有限公司</t>
         </is>
       </c>
     </row>
@@ -57894,7 +57894,7 @@
       </c>
       <c r="C3381" t="inlineStr">
         <is>
-          <t>乾端手机通讯专营店：该店铺无证照</t>
+          <t>湖南乾端科技有限公司</t>
         </is>
       </c>
     </row>
@@ -58064,7 +58064,7 @@
       </c>
       <c r="C3391" t="inlineStr">
         <is>
-          <t>爱漫者工作室：该店铺无证照</t>
+          <t>爱漫者工作室：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -58098,7 +58098,7 @@
       </c>
       <c r="C3393" t="inlineStr">
         <is>
-          <t>睿稳官方旗舰店：该店铺无证照</t>
+          <t>北京锐取天创科技有限公司</t>
         </is>
       </c>
     </row>
@@ -58217,7 +58217,7 @@
       </c>
       <c r="C3400" t="inlineStr">
         <is>
-          <t>挚诚优选二手电脑专营店：该店铺无证照</t>
+          <t>南京挚诚信息技术有限公司</t>
         </is>
       </c>
     </row>
@@ -58268,7 +58268,7 @@
       </c>
       <c r="C3403" t="inlineStr">
         <is>
-          <t>倍斯清二手数码设备专营店：该店铺无证照</t>
+          <t>枣庄倍斯清电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -58506,7 +58506,7 @@
       </c>
       <c r="C3417" t="inlineStr">
         <is>
-          <t>港深手机通讯买手店：该店铺无证照</t>
+          <t>港深手机通讯买手店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -58727,7 +58727,7 @@
       </c>
       <c r="C3430" t="inlineStr">
         <is>
-          <t>一方买手店：该店铺无证照</t>
+          <t>海口美兰可乐家百货店</t>
         </is>
       </c>
     </row>
@@ -58744,7 +58744,7 @@
       </c>
       <c r="C3431" t="inlineStr">
         <is>
-          <t>ZELLA DAY手表旗舰店：该店铺无证照</t>
+          <t>福州顺风表业销售有限公司</t>
         </is>
       </c>
     </row>
@@ -58829,7 +58829,7 @@
       </c>
       <c r="C3436" t="inlineStr">
         <is>
-          <t>京京砸百万与多多开战经营部：该店铺无证照</t>
+          <t>京京砸百万与多多开战经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -58914,7 +58914,7 @@
       </c>
       <c r="C3441" t="inlineStr">
         <is>
-          <t>边城通讯手机买手店：该店铺无证照</t>
+          <t>深圳市福田区边城通讯商行</t>
         </is>
       </c>
     </row>
@@ -59033,7 +59033,7 @@
       </c>
       <c r="C3448" t="inlineStr">
         <is>
-          <t>众志成力数码专营店：该店铺无证照</t>
+          <t>深圳市众志成力科技有限公司</t>
         </is>
       </c>
     </row>
@@ -59322,7 +59322,7 @@
       </c>
       <c r="C3465" t="inlineStr">
         <is>
-          <t>Aelvo手表旗舰店：该店铺无证照</t>
+          <t>福州艾尔沃电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -59390,7 +59390,7 @@
       </c>
       <c r="C3469" t="inlineStr">
         <is>
-          <t>智能手表小铺：该店铺无证照</t>
+          <t>智能手表小铺：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -59492,7 +59492,7 @@
       </c>
       <c r="C3475" t="inlineStr">
         <is>
-          <t>仰化二手电脑专营店：该店铺无证照</t>
+          <t>上海仰化电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -59509,7 +59509,7 @@
       </c>
       <c r="C3476" t="inlineStr">
         <is>
-          <t>奇奇果数码经营部：该店铺无证照</t>
+          <t>奇奇果数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -59526,7 +59526,7 @@
       </c>
       <c r="C3477" t="inlineStr">
         <is>
-          <t>华创为科数码经营部：该店铺无证照</t>
+          <t>华创为科数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -59645,7 +59645,7 @@
       </c>
       <c r="C3484" t="inlineStr">
         <is>
-          <t>工科大小店：该店铺无证照</t>
+          <t>工科大小店：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -59900,7 +59900,7 @@
       </c>
       <c r="C3499" t="inlineStr">
         <is>
-          <t>易科森数码配件专营店：该店铺无证照</t>
+          <t>深圳市易科森科技发展有限公司</t>
         </is>
       </c>
     </row>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="C3507" t="inlineStr">
         <is>
-          <t>WEPRO数码旗舰店：该店铺无证照</t>
+          <t>深圳市桃核科技有限公司</t>
         </is>
       </c>
     </row>
@@ -60121,7 +60121,7 @@
       </c>
       <c r="C3512" t="inlineStr">
         <is>
-          <t>艾么么旗舰店：该店铺无证照</t>
+          <t>深圳蝌蚪电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -60257,7 +60257,7 @@
       </c>
       <c r="C3520" t="inlineStr">
         <is>
-          <t>abdo旗舰店：该店铺无证照</t>
+          <t>武汉市皮卡卡电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -60682,7 +60682,7 @@
       </c>
       <c r="C3545" t="inlineStr">
         <is>
-          <t>执古道手表专营店：该店铺无证照</t>
+          <t>福州艾尔沃电子商务有限公司</t>
         </is>
       </c>
     </row>
@@ -60733,7 +60733,7 @@
       </c>
       <c r="C3548" t="inlineStr">
         <is>
-          <t>机灵小子数码经营部：该店铺无证照</t>
+          <t>机灵小子数码经营部：该店铺无经营企业名称</t>
         </is>
       </c>
     </row>
@@ -61005,7 +61005,7 @@
       </c>
       <c r="C3564" t="inlineStr">
         <is>
-          <t>阿帕迪旗舰店：该店铺无证照</t>
+          <t>泉州兴永宁贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -61124,7 +61124,7 @@
       </c>
       <c r="C3571" t="inlineStr">
         <is>
-          <t>佳裕手机配件专营店：该店铺无证照</t>
+          <t>珠海市佳裕科技有限公司</t>
         </is>
       </c>
     </row>
@@ -61192,7 +61192,7 @@
       </c>
       <c r="C3575" t="inlineStr">
         <is>
-          <t>汉为观止家电卖场店：该店铺无证照</t>
+          <t>宁德市汉为观止贸易有限责任公司</t>
         </is>
       </c>
     </row>
@@ -61328,7 +61328,7 @@
       </c>
       <c r="C3583" t="inlineStr">
         <is>
-          <t>纽曼（Newmine）影音娱乐旗舰店：该店铺无证照</t>
+          <t>仙游县黎木岚贸易有限公司</t>
         </is>
       </c>
     </row>
@@ -61413,7 +61413,1690 @@
       </c>
       <c r="C3588" t="inlineStr">
         <is>
-          <t>VCF旗舰店：该店铺无证照</t>
+          <t>深圳市凡灵科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3589">
+      <c r="A3589" t="inlineStr">
+        <is>
+          <t>赛盟数码专营店</t>
+        </is>
+      </c>
+      <c r="B3589" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-83969.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3589" t="inlineStr">
+        <is>
+          <t>东莞市赛盟货运代理有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3590">
+      <c r="A3590" t="inlineStr">
+        <is>
+          <t>吉华庆数码店</t>
+        </is>
+      </c>
+      <c r="B3590" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10174259.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3590" t="inlineStr">
+        <is>
+          <t>深圳吉华庆科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3591">
+      <c r="A3591" t="inlineStr">
+        <is>
+          <t>佳禾耳机官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3591" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-745465.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3591" t="inlineStr">
+        <is>
+          <t>广州市旋燕电子科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3592">
+      <c r="A3592" t="inlineStr">
+        <is>
+          <t>京鱼座京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3592" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000039942.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3592" t="inlineStr">
+        <is>
+          <t>京鱼座京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3593">
+      <c r="A3593" t="inlineStr">
+        <is>
+          <t>伊芙琳官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3593" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10660345.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3593" t="inlineStr">
+        <is>
+          <t>深圳市艾克科技技术有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3594">
+      <c r="A3594" t="inlineStr">
+        <is>
+          <t>乐毒（Ledo）京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3594" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000330263.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3594" t="inlineStr">
+        <is>
+          <t>乐毒（Ledo）京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3595">
+      <c r="A3595" t="inlineStr">
+        <is>
+          <t>普建达（PJD）京东自营官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3595" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000383643.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3595" t="inlineStr">
+        <is>
+          <t>普建达（PJD）京东自营官方旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3596">
+      <c r="A3596" t="inlineStr">
+        <is>
+          <t>万泰数码海外专营店</t>
+        </is>
+      </c>
+      <c r="B3596" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-590897.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3596" t="inlineStr">
+        <is>
+          <t>万泰数码海外专营店：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3597">
+      <c r="A3597" t="inlineStr">
+        <is>
+          <t>奥克罗旗舰店</t>
+        </is>
+      </c>
+      <c r="B3597" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10310515.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3597" t="inlineStr">
+        <is>
+          <t>东莞市赛盟货运代理有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3598">
+      <c r="A3598" t="inlineStr">
+        <is>
+          <t>迈锐手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3598" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-830643.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3598" t="inlineStr">
+        <is>
+          <t>深圳迈锐箱包有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3599">
+      <c r="A3599" t="inlineStr">
+        <is>
+          <t>海威特Havit旗舰店</t>
+        </is>
+      </c>
+      <c r="B3599" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-711060.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3599" t="inlineStr">
+        <is>
+          <t>广州卓为社电子有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3600">
+      <c r="A3600" t="inlineStr">
+        <is>
+          <t>欧迈伽数码专营店</t>
+        </is>
+      </c>
+      <c r="B3600" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-725174.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3600" t="inlineStr">
+        <is>
+          <t>深圳市欧迈伽数码科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3601">
+      <c r="A3601" t="inlineStr">
+        <is>
+          <t>汇凡智手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3601" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11274341.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3601" t="inlineStr">
+        <is>
+          <t>徐州汇凡智电子有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3602">
+      <c r="A3602" t="inlineStr">
+        <is>
+          <t>海莫数码专营店</t>
+        </is>
+      </c>
+      <c r="B3602" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-745489.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3602" t="inlineStr">
+        <is>
+          <t>深圳市海莫技术有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3603">
+      <c r="A3603" t="inlineStr">
+        <is>
+          <t>逸声手机配件旗舰店</t>
+        </is>
+      </c>
+      <c r="B3603" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10136552.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3603" t="inlineStr">
+        <is>
+          <t>佛山市顺德区英武共建贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3604">
+      <c r="A3604" t="inlineStr">
+        <is>
+          <t>VALK京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3604" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000093767.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3604" t="inlineStr">
+        <is>
+          <t>VALK京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3605">
+      <c r="A3605" t="inlineStr">
+        <is>
+          <t>鸿耀腾创意配件专营店</t>
+        </is>
+      </c>
+      <c r="B3605" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10540628.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3605" t="inlineStr">
+        <is>
+          <t>深圳市鸿耀腾科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3606">
+      <c r="A3606" t="inlineStr">
+        <is>
+          <t>鑫仟惠数码专营店</t>
+        </is>
+      </c>
+      <c r="B3606" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-731519.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3606" t="inlineStr">
+        <is>
+          <t>南昌鑫仟惠贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3607">
+      <c r="A3607" t="inlineStr">
+        <is>
+          <t>淘米家数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3607" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11575454.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3607" t="inlineStr">
+        <is>
+          <t>悦音（浙江）电子商务有限责任公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3608">
+      <c r="A3608" t="inlineStr">
+        <is>
+          <t>芷芬手机壳专营店</t>
+        </is>
+      </c>
+      <c r="B3608" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10259790.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3608" t="inlineStr">
+        <is>
+          <t>深圳市芷芬珠宝有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3609">
+      <c r="A3609" t="inlineStr">
+        <is>
+          <t>京联数科旗舰店</t>
+        </is>
+      </c>
+      <c r="B3609" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10706414.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3609" t="inlineStr">
+        <is>
+          <t>安徽京联数科信息技术有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3610">
+      <c r="A3610" t="inlineStr">
+        <is>
+          <t>小度（Xiao Du）京喜直营专区</t>
+        </is>
+      </c>
+      <c r="B3610" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000461734.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3610" t="inlineStr">
+        <is>
+          <t>小度（Xiao Du）京喜直营专区：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3611">
+      <c r="A3611" t="inlineStr">
+        <is>
+          <t>品尔手机配件店</t>
+        </is>
+      </c>
+      <c r="B3611" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10083705.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3611" t="inlineStr">
+        <is>
+          <t>广州品尔贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3612">
+      <c r="A3612" t="inlineStr">
+        <is>
+          <t>普天迅捷电脑配件专营店</t>
+        </is>
+      </c>
+      <c r="B3612" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-749757.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3612" t="inlineStr">
+        <is>
+          <t>武汉普天迅捷科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3613">
+      <c r="A3613" t="inlineStr">
+        <is>
+          <t>北京亿洲创新数码专营店</t>
+        </is>
+      </c>
+      <c r="B3613" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-80513.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3613" t="inlineStr">
+        <is>
+          <t>北京亿洲创新科技发展有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3614">
+      <c r="A3614" t="inlineStr">
+        <is>
+          <t>炫勒旗舰店</t>
+        </is>
+      </c>
+      <c r="B3614" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10124787.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3614" t="inlineStr">
+        <is>
+          <t>东莞市华发电子科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3615">
+      <c r="A3615" t="inlineStr">
+        <is>
+          <t>酷果数码专营店</t>
+        </is>
+      </c>
+      <c r="B3615" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-142114.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3615" t="inlineStr">
+        <is>
+          <t>武汉市酷果科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3616">
+      <c r="A3616" t="inlineStr">
+        <is>
+          <t>深圳吉华庆数码科技店</t>
+        </is>
+      </c>
+      <c r="B3616" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11319897.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3616" t="inlineStr">
+        <is>
+          <t>深圳吉华庆科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3617">
+      <c r="A3617" t="inlineStr">
+        <is>
+          <t>冷檬旗舰店</t>
+        </is>
+      </c>
+      <c r="B3617" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10573067.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3617" t="inlineStr">
+        <is>
+          <t>深圳市六度若谷科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3618">
+      <c r="A3618" t="inlineStr">
+        <is>
+          <t>酷盟京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3618" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10237015.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3618" t="inlineStr">
+        <is>
+          <t>酷盟京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3619">
+      <c r="A3619" t="inlineStr">
+        <is>
+          <t>沃听数码专营店</t>
+        </is>
+      </c>
+      <c r="B3619" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10207884.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3619" t="inlineStr">
+        <is>
+          <t>深圳市沃听科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3620">
+      <c r="A3620" t="inlineStr">
+        <is>
+          <t>OneOdio旗舰店</t>
+        </is>
+      </c>
+      <c r="B3620" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10196034.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3620" t="inlineStr">
+        <is>
+          <t>万兆声学科技（深圳）有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3621">
+      <c r="A3621" t="inlineStr">
+        <is>
+          <t>哈奇数码专营店</t>
+        </is>
+      </c>
+      <c r="B3621" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-757001.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3621" t="inlineStr">
+        <is>
+          <t>上海哈奇贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3622">
+      <c r="A3622" t="inlineStr">
+        <is>
+          <t>KUMI旗舰店</t>
+        </is>
+      </c>
+      <c r="B3622" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10271319.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3622" t="inlineStr">
+        <is>
+          <t>深圳库米电子科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3623">
+      <c r="A3623" t="inlineStr">
+        <is>
+          <t>夏睿手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3623" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10177538.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3623" t="inlineStr">
+        <is>
+          <t>广州夏睿贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3624">
+      <c r="A3624" t="inlineStr">
+        <is>
+          <t>优杰瑞专营店</t>
+        </is>
+      </c>
+      <c r="B3624" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-73669.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3624" t="inlineStr">
+        <is>
+          <t>深圳市优杰瑞电子有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3625">
+      <c r="A3625" t="inlineStr">
+        <is>
+          <t>卡丝拉狄数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3625" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-956879.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3625" t="inlineStr">
+        <is>
+          <t>厦门赤莳有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3626">
+      <c r="A3626" t="inlineStr">
+        <is>
+          <t>Schreiter耳机耳麦旗舰店</t>
+        </is>
+      </c>
+      <c r="B3626" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10301278.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3626" t="inlineStr">
+        <is>
+          <t>厦门瑞德罗曼科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3627">
+      <c r="A3627" t="inlineStr">
+        <is>
+          <t>芙洛蒂（Phrodi）官方京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3627" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000383464.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3627" t="inlineStr">
+        <is>
+          <t>芙洛蒂（Phrodi）官方京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3628">
+      <c r="A3628" t="inlineStr">
+        <is>
+          <t>SUNNIQ数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3628" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-148225.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3628" t="inlineStr">
+        <is>
+          <t>深圳市我的金典科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3629">
+      <c r="A3629" t="inlineStr">
+        <is>
+          <t>ZMI京东自营官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3629" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000003231.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3629" t="inlineStr">
+        <is>
+          <t>ZMI京东自营官方旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3630">
+      <c r="A3630" t="inlineStr">
+        <is>
+          <t>KAIEAR影音娱乐旗舰店</t>
+        </is>
+      </c>
+      <c r="B3630" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11774174.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3630" t="inlineStr">
+        <is>
+          <t>东莞市金耳朵电子有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3631">
+      <c r="A3631" t="inlineStr">
+        <is>
+          <t>OPPO手机乐良专卖店</t>
+        </is>
+      </c>
+      <c r="B3631" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-661595.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3631" t="inlineStr">
+        <is>
+          <t>上海乐良网络科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3632">
+      <c r="A3632" t="inlineStr">
+        <is>
+          <t>圣鳄数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3632" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-658436.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3632" t="inlineStr">
+        <is>
+          <t>深圳中融国汇科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3633">
+      <c r="A3633" t="inlineStr">
+        <is>
+          <t>图拉斯（TORRAS）京东自营官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3633" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000431261.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3633" t="inlineStr">
+        <is>
+          <t>图拉斯（TORRAS）京东自营官方旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3634">
+      <c r="A3634" t="inlineStr">
+        <is>
+          <t>纽曼影音娱乐旗舰店</t>
+        </is>
+      </c>
+      <c r="B3634" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-806721.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3634" t="inlineStr">
+        <is>
+          <t>深圳市初音未来电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3635">
+      <c r="A3635" t="inlineStr">
+        <is>
+          <t>OPPO云泽专卖店</t>
+        </is>
+      </c>
+      <c r="B3635" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12308721.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3635" t="inlineStr">
+        <is>
+          <t>云泽（浙江）电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3636">
+      <c r="A3636" t="inlineStr">
+        <is>
+          <t>Ruodiio旗舰店</t>
+        </is>
+      </c>
+      <c r="B3636" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12851375.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3636" t="inlineStr">
+        <is>
+          <t>深圳市瑞德音电子有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3637">
+      <c r="A3637" t="inlineStr">
+        <is>
+          <t>嘿喽官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3637" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12044881.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3637" t="inlineStr">
+        <is>
+          <t>东莞市猎声电子科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3638">
+      <c r="A3638" t="inlineStr">
+        <is>
+          <t>知我手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3638" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-970016.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3638" t="inlineStr">
+        <is>
+          <t>深圳市知我科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3639">
+      <c r="A3639" t="inlineStr">
+        <is>
+          <t>睿量（REMAX）官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3639" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10321389.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3639" t="inlineStr">
+        <is>
+          <t>深圳市睿禾科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3640">
+      <c r="A3640" t="inlineStr">
+        <is>
+          <t>西伯利亚官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3640" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12649092.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3640" t="inlineStr">
+        <is>
+          <t>东莞市德声实业有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3641">
+      <c r="A3641" t="inlineStr">
+        <is>
+          <t>赛德斯京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3641" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000087568.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3641" t="inlineStr">
+        <is>
+          <t>赛德斯京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3642">
+      <c r="A3642" t="inlineStr">
+        <is>
+          <t>诺基亚（NOKIA）影音京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3642" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000366022.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3642" t="inlineStr">
+        <is>
+          <t>诺基亚（NOKIA）影音京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3643">
+      <c r="A3643" t="inlineStr">
+        <is>
+          <t>PALOVUE官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3643" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-690114.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3643" t="inlineStr">
+        <is>
+          <t>深圳市福智声学技术有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3644">
+      <c r="A3644" t="inlineStr">
+        <is>
+          <t>洛荧数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3644" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12276685.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3644" t="inlineStr">
+        <is>
+          <t>深圳市暮然科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3645">
+      <c r="A3645" t="inlineStr">
+        <is>
+          <t>菲德声旗舰店</t>
+        </is>
+      </c>
+      <c r="B3645" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10317007.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3645" t="inlineStr">
+        <is>
+          <t>深圳市音领时代科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3646">
+      <c r="A3646" t="inlineStr">
+        <is>
+          <t>原蛇京喜直营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3646" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000444542.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3646" t="inlineStr">
+        <is>
+          <t>原蛇京喜直营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3647">
+      <c r="A3647" t="inlineStr">
+        <is>
+          <t>NICEHCK官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3647" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10262569.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3647" t="inlineStr">
+        <is>
+          <t>深圳市华创可欣电子科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3648">
+      <c r="A3648" t="inlineStr">
+        <is>
+          <t>酷联卖场店</t>
+        </is>
+      </c>
+      <c r="B3648" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-768441.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3648" t="inlineStr">
+        <is>
+          <t>深圳市酷联科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3649">
+      <c r="A3649" t="inlineStr">
+        <is>
+          <t>Tensam官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3649" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-88976.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3649" t="inlineStr">
+        <is>
+          <t>深圳市君昊网络科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3650">
+      <c r="A3650" t="inlineStr">
+        <is>
+          <t>Hakii京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3650" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000281447.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3650" t="inlineStr">
+        <is>
+          <t>Hakii京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3651">
+      <c r="A3651" t="inlineStr">
+        <is>
+          <t>摩玛顿数码配件专营店</t>
+        </is>
+      </c>
+      <c r="B3651" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-590781.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3651" t="inlineStr">
+        <is>
+          <t>广州摩玛顿贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3652">
+      <c r="A3652" t="inlineStr">
+        <is>
+          <t>EPZ影音娱乐官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3652" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10050638.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3652" t="inlineStr">
+        <is>
+          <t>深圳市玖舟电子有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3653">
+      <c r="A3653" t="inlineStr">
+        <is>
+          <t>弘阔创想数码专营店</t>
+        </is>
+      </c>
+      <c r="B3653" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11517263.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3653" t="inlineStr">
+        <is>
+          <t>兰州弘阔创想电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3654">
+      <c r="A3654" t="inlineStr">
+        <is>
+          <t>斯客丁手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3654" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-760363.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3654" t="inlineStr">
+        <is>
+          <t>深圳市斯客丁数码有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3655">
+      <c r="A3655" t="inlineStr">
+        <is>
+          <t>EKSA京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3655" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000386629.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3655" t="inlineStr">
+        <is>
+          <t>EKSA京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3656">
+      <c r="A3656" t="inlineStr">
+        <is>
+          <t>QCY旗舰店</t>
+        </is>
+      </c>
+      <c r="B3656" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-666202.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3656" t="inlineStr">
+        <is>
+          <t>东莞市和乐电子有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3657">
+      <c r="A3657" t="inlineStr">
+        <is>
+          <t>康创旗舰店</t>
+        </is>
+      </c>
+      <c r="B3657" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12544957.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3657" t="inlineStr">
+        <is>
+          <t>深圳市臻品汇科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3658">
+      <c r="A3658" t="inlineStr">
+        <is>
+          <t>yeroge旗舰店</t>
+        </is>
+      </c>
+      <c r="B3658" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10152430.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3658" t="inlineStr">
+        <is>
+          <t>惠州市源美科电子有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3659">
+      <c r="A3659" t="inlineStr">
+        <is>
+          <t>德西瑞手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3659" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11648445.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3659" t="inlineStr">
+        <is>
+          <t>南通德西瑞商贸有限责任公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3660">
+      <c r="A3660" t="inlineStr">
+        <is>
+          <t>翰谷旗舰店</t>
+        </is>
+      </c>
+      <c r="B3660" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-676090.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3660" t="inlineStr">
+        <is>
+          <t>深圳市易源进科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3661">
+      <c r="A3661" t="inlineStr">
+        <is>
+          <t>坚持数码专营店</t>
+        </is>
+      </c>
+      <c r="B3661" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11916683.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3661" t="inlineStr">
+        <is>
+          <t>坚持互联科技（北京）有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3662">
+      <c r="A3662" t="inlineStr">
+        <is>
+          <t>斑斯诺旗舰店</t>
+        </is>
+      </c>
+      <c r="B3662" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10162269.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3662" t="inlineStr">
+        <is>
+          <t>深圳市逸之盾科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3663">
+      <c r="A3663" t="inlineStr">
+        <is>
+          <t>加力邦官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3663" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-908036.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3663" t="inlineStr">
+        <is>
+          <t>深圳市加力邦科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3664">
+      <c r="A3664" t="inlineStr">
+        <is>
+          <t>恒壕贴旗舰店</t>
+        </is>
+      </c>
+      <c r="B3664" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-109577.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3664" t="inlineStr">
+        <is>
+          <t>深圳市伊米仕数码有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3665">
+      <c r="A3665" t="inlineStr">
+        <is>
+          <t>光界影音娱乐旗舰店</t>
+        </is>
+      </c>
+      <c r="B3665" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12902392.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3665" t="inlineStr">
+        <is>
+          <t>泉州市光界电子科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3666">
+      <c r="A3666" t="inlineStr">
+        <is>
+          <t>FMJ旗舰店</t>
+        </is>
+      </c>
+      <c r="B3666" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-742473.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3666" t="inlineStr">
+        <is>
+          <t>深圳市乔汇电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3667">
+      <c r="A3667" t="inlineStr">
+        <is>
+          <t>一相手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3667" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10135652.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3667" t="inlineStr">
+        <is>
+          <t>广州一相电子科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3668">
+      <c r="A3668" t="inlineStr">
+        <is>
+          <t>鑫铂锐数码专营店</t>
+        </is>
+      </c>
+      <c r="B3668" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10037857.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3668" t="inlineStr">
+        <is>
+          <t>深圳市鑫铂锐贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3669">
+      <c r="A3669" t="inlineStr">
+        <is>
+          <t>园世科技官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3669" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-793641.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3669" t="inlineStr">
+        <is>
+          <t>武汉园世科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3670">
+      <c r="A3670" t="inlineStr">
+        <is>
+          <t>木六官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3670" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-11605594.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3670" t="inlineStr">
+        <is>
+          <t>深圳市森集科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3671">
+      <c r="A3671" t="inlineStr">
+        <is>
+          <t>恒达数码专营店</t>
+        </is>
+      </c>
+      <c r="B3671" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-709880.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3671" t="inlineStr">
+        <is>
+          <t>恒达国际科技（深圳）有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3672">
+      <c r="A3672" t="inlineStr">
+        <is>
+          <t>园世科技旗舰店</t>
+        </is>
+      </c>
+      <c r="B3672" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-958502.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3672" t="inlineStr">
+        <is>
+          <t>武汉未来客科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3673">
+      <c r="A3673" t="inlineStr">
+        <is>
+          <t>京奢数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3673" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12342701.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3673" t="inlineStr">
+        <is>
+          <t>深圳市雷斯特电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3674">
+      <c r="A3674" t="inlineStr">
+        <is>
+          <t>酷斯基手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3674" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10394215.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3674" t="inlineStr">
+        <is>
+          <t>深圳市酷斯基科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3675">
+      <c r="A3675" t="inlineStr">
+        <is>
+          <t>钒睿达手机配件工作室</t>
+        </is>
+      </c>
+      <c r="B3675" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12425070.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3675" t="inlineStr">
+        <is>
+          <t>钒睿达手机配件工作室：该店铺无经营企业名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="3676">
+      <c r="A3676" t="inlineStr">
+        <is>
+          <t>禾易京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3676" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000338182.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3676" t="inlineStr">
+        <is>
+          <t>禾易京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3677">
+      <c r="A3677" t="inlineStr">
+        <is>
+          <t>卓誉数码专营店</t>
+        </is>
+      </c>
+      <c r="B3677" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10144602.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3677" t="inlineStr">
+        <is>
+          <t>义乌市卓誉贸易有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3678">
+      <c r="A3678" t="inlineStr">
+        <is>
+          <t>森光数码专营店</t>
+        </is>
+      </c>
+      <c r="B3678" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12934441.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3678" t="inlineStr">
+        <is>
+          <t>深圳市森光投资商贸有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3679">
+      <c r="A3679" t="inlineStr">
+        <is>
+          <t>佳凡旗舰店</t>
+        </is>
+      </c>
+      <c r="B3679" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-901482.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3679" t="inlineStr">
+        <is>
+          <t>广州网航电子科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3680">
+      <c r="A3680" t="inlineStr">
+        <is>
+          <t>夕风数码影音京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3680" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000412384.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3680" t="inlineStr">
+        <is>
+          <t>夕风数码影音京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3681">
+      <c r="A3681" t="inlineStr">
+        <is>
+          <t>深圳吉华庆科技店</t>
+        </is>
+      </c>
+      <c r="B3681" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10085372.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3681" t="inlineStr">
+        <is>
+          <t>深圳吉华庆科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3682">
+      <c r="A3682" t="inlineStr">
+        <is>
+          <t>Tribit数码旗舰店</t>
+        </is>
+      </c>
+      <c r="B3682" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10207844.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3682" t="inlineStr">
+        <is>
+          <t>义乌市千岸电子商务有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3683">
+      <c r="A3683" t="inlineStr">
+        <is>
+          <t>机乐堂（JOYROOM）数码京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3683" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000391674.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3683" t="inlineStr">
+        <is>
+          <t>机乐堂（JOYROOM）数码京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3684">
+      <c r="A3684" t="inlineStr">
+        <is>
+          <t>烨天下手机配件专营店</t>
+        </is>
+      </c>
+      <c r="B3684" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-10021296.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3684" t="inlineStr">
+        <is>
+          <t>深圳市烨天下数码有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3685">
+      <c r="A3685" t="inlineStr">
+        <is>
+          <t>猫王京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="B3685" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-1000005719.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3685" t="inlineStr">
+        <is>
+          <t>猫王京东自营旗舰店：该店铺无证照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3686">
+      <c r="A3686" t="inlineStr">
+        <is>
+          <t>零机翼动数码官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B3686" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-12272671.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3686" t="inlineStr">
+        <is>
+          <t>深圳市嘉讯数码有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3687">
+      <c r="A3687" t="inlineStr">
+        <is>
+          <t>奇遁数码专营店</t>
+        </is>
+      </c>
+      <c r="B3687" t="inlineStr">
+        <is>
+          <t>https://mall.jd.com/index-782516.html?from=pc</t>
+        </is>
+      </c>
+      <c r="C3687" t="inlineStr">
+        <is>
+          <t>东莞市奇遁贸易有限公司</t>
         </is>
       </c>
     </row>
